--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +113,34 @@
     <t>sz-mod (byte)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>uncompressed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.00001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.0000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.0000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.00001</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -181,8 +209,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1272,6 +1301,443 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>CPU Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>himeno!$B$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sz-mod-0.0000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sz-mod-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sz-mod-0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.246116000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.305459999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.922677999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.471921000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22AB-4B81-848B-7D9B18E0BD41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1279226655"/>
+        <c:axId val="1279234143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1279226655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43705424321959757"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279234143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279234143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>cpu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.37302456984543603"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279226655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>compression ratio</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -1733,7 +2199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2231,7 +2697,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2914,6 +3380,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5429,20 +5935,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>309752</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>159755</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341502</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>727793</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>759543</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>58156</xdr:rowOff>
+      <xdr:rowOff>121656</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5492,6 +6501,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5864,10 +6903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6080,6 +7119,78 @@
       </c>
       <c r="B12">
         <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>50.246116000000001</v>
+      </c>
+      <c r="C16">
+        <v>55.305459999999997</v>
+      </c>
+      <c r="D16">
+        <v>52.922677999999998</v>
+      </c>
+      <c r="E16">
+        <v>57.471921000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>8.1706539999999999E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.0942889999999998E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.4541299999999997E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.5977960000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6094,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="16836" yWindow="9264" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6576,15 +6576,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:colOff>633730</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>53145</xdr:colOff>
+      <xdr:colOff>578925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6905,16 +6905,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -7121,12 +7121,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -7157,12 +7157,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -7205,18 +7205,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7276,12 +7276,12 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>2.637E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7341,12 +7341,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7366,12 +7366,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>11</v>
       </c>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16836" yWindow="9264" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -141,12 +141,44 @@
     <t>sz-mod-0.00001</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>uc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.00001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (10 times)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (10000 times)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,7 +343,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -596,7 +627,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1199,7 +1229,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1307,7 +1336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3180,6 +3208,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ping-pong'!$I$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c-0.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c-0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c-0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$I$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3371000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1703000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7229999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1108000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7821999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2465000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAF9-480C-9A1E-F4E6369B689D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1311968464"/>
+        <c:axId val="1311969296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1311968464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44654046369203854"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311969296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1311969296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.36839494021580638"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311968464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3420,6 +3903,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5936,6 +6459,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6543,16 +7569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>242581</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42773</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>96531</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>49123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>191779</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87223</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83829</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93573</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6575,16 +7601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>633730</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>578925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>553525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6632,6 +7658,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6909,12 +7965,12 @@
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6940,7 +7996,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6966,7 +8022,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6995,7 +8051,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +8080,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7053,7 +8109,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -7073,7 +8129,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7081,7 +8137,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7089,7 +8145,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7097,7 +8153,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7105,7 +8161,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7113,7 +8169,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -7121,12 +8177,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7143,7 +8199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -7157,12 +8213,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +8235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -7203,20 +8259,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -7236,7 +8295,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7276,12 +8335,15 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7300,8 +8362,29 @@
       <c r="F7">
         <v>0.01</v>
       </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7320,8 +8403,26 @@
       <c r="F8">
         <v>2.637E-3</v>
       </c>
+      <c r="I8">
+        <v>8.3371000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>7.1703000000000003E-2</v>
+      </c>
+      <c r="K8">
+        <v>6.7229999999999998E-2</v>
+      </c>
+      <c r="L8">
+        <v>6.1108000000000003E-2</v>
+      </c>
+      <c r="M8">
+        <v>5.7821999999999998E-2</v>
+      </c>
+      <c r="N8">
+        <v>4.2465000000000003E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7341,12 +8442,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7366,12 +8467,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -7394,6 +8495,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16836" yWindow="9264" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
     <sheet name="ping-pong" sheetId="2" r:id="rId2"/>
+    <sheet name="k-means" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -173,12 +174,20 @@
     <t>execution time (10000 times)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>execution time (iteration = 1000, clusters = 100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (iteration = 1000, clusters = 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7965,12 +7974,12 @@
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7996,7 +8005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8022,7 +8031,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8051,7 +8060,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8080,7 +8089,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8109,7 +8118,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8137,7 +8146,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8145,7 +8154,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -8177,12 +8186,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8199,7 +8208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -8213,12 +8222,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -8261,21 +8270,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8315,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8344,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8343,7 +8352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8384,7 +8393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8422,7 +8431,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8442,12 +8451,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8467,12 +8476,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -8498,4 +8507,206 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3">
+        <v>3.6736149999999999</v>
+      </c>
+      <c r="C3">
+        <v>3.6474099999999998</v>
+      </c>
+      <c r="D3">
+        <v>3.869971</v>
+      </c>
+      <c r="E3">
+        <v>3.8685670000000001</v>
+      </c>
+      <c r="F3">
+        <v>3.8515999999999999</v>
+      </c>
+      <c r="G3">
+        <v>3.8312430000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2.3E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.86E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <v>37.079129000000002</v>
+      </c>
+      <c r="C11">
+        <v>36.320219999999999</v>
+      </c>
+      <c r="D11">
+        <v>36.743932999999998</v>
+      </c>
+      <c r="E11">
+        <v>36.192960999999997</v>
+      </c>
+      <c r="F11">
+        <v>35.397722000000002</v>
+      </c>
+      <c r="G11">
+        <v>35.168976999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14">
+        <v>1E-4</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="E15">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="F15">
+        <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16836" yWindow="9264" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -182,12 +182,16 @@
     <t>execution time (iteration = 1000, clusters = 1000)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>compress ratio (iteration = 1000, clusters = 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1781,7 +1785,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2169,7 +2172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2281,7 +2283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2667,7 +2668,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2749,7 +2749,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2850,7 +2849,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3257,7 +3255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7974,12 +7971,12 @@
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8031,7 +8028,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8060,7 +8057,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8086,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8118,7 +8115,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8146,7 +8143,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -8178,7 +8175,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -8186,12 +8183,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -8222,12 +8219,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -8244,7 +8241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -8274,17 +8271,17 @@
       <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -8304,7 +8301,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8324,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8344,7 +8341,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8393,7 +8390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8431,7 +8428,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8451,12 +8448,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8476,12 +8473,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -8511,20 +8508,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8547,7 +8544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -8567,12 +8564,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +8589,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8612,12 +8609,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8640,7 +8637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -8660,12 +8657,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8703,10 +8700,60 @@
       </c>
       <c r="F15">
         <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>1E-4</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f xml:space="preserve"> 1/0.979871</f>
+        <v>1.0205424999821404</v>
+      </c>
+      <c r="C20">
+        <v>1.019641</v>
+      </c>
+      <c r="D20">
+        <v>1.036257</v>
+      </c>
+      <c r="E20">
+        <v>1.059337</v>
+      </c>
+      <c r="F20">
+        <v>1.156326</v>
+      </c>
+      <c r="G20">
+        <v>1.359143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
     <sheet name="ping-pong" sheetId="2" r:id="rId2"/>
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
+    <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -184,6 +185,10 @@
   </si>
   <si>
     <t>compress ratio (iteration = 1000, clusters = 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compress ratio</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -356,6 +361,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -599,6 +605,903 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compress ratio (iteration = 1000, clusters = 1000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0205424999821404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.019641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.059337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.156326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.359143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863B-409E-8C94-8FE1399EAFA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1138082288"/>
+        <c:axId val="1138082704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1138082288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44020713035870518"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138082704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.29895049577136196"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fftss!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>fftss!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fftss!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.21041825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.21041825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.21041825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.21041825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.21041825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDF9-447E-B3EC-115956A99F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="975322240"/>
+        <c:axId val="975322656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="975322240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43072090988626421"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="975322656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="975322656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.2994830854476524"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="975322240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -640,6 +1543,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,6 +2146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1349,6 +2254,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1785,6 +2691,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,6 +3079,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2283,6 +3191,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2668,6 +3577,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2749,6 +3659,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2849,6 +3760,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3255,6 +4167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3669,7 +4582,989 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'k-means'!$B$10:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c-0.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c-0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c-0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.079129000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.320219999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.743932999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.192960999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.397722000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.168976999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0319-4B7E-80F3-354A96AF7DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="977675360"/>
+        <c:axId val="977677024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="977675360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44654046369203854"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977677024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="977677024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.30010790317876934"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977675360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Gosa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2000000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4414-4A37-B0FC-E3FEE48C461F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1143256848"/>
+        <c:axId val="1143259344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1143256848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48602646544181977"/>
+              <c:y val="0.90277777777777779"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143259344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1143259344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.40080234762321376"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143256848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3949,6 +5844,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4452,8 +6427,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4955,7 +6930,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5458,8 +7433,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5961,7 +7936,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6464,7 +8439,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6967,7 +8942,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7702,6 +11689,136 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -7967,7 +12084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
@@ -8267,8 +12384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8510,8 +12627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8696,7 +12813,7 @@
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="E15">
-        <v>2.6999999999999999E-5</v>
+        <v>2.7E-4</v>
       </c>
       <c r="F15">
         <v>4.2000000000000002E-4</v>
@@ -8755,5 +12872,139 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>AVERAGE(B4:B7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="0">AVERAGE(C4:C7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6.21041825</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6.21041825</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>6.21041825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="C4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="D4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="E4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="F4">
+        <v>7.9996809999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="C5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="D5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="E5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="F5">
+        <v>7.9996809999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.0025649999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="D7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="E7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="F7">
+        <v>7.8397459999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DBF2C-FC95-CC4E-8220-BA0DF0A05B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9260" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,13 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -195,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,7 +367,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -645,7 +650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1096,7 +1100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1543,7 +1546,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2146,7 +2148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2254,7 +2255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2691,7 +2691,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3079,7 +3078,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3191,7 +3189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3577,7 +3574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3659,7 +3655,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3760,7 +3755,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4167,7 +4161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4622,7 +4615,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5076,7 +5068,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11477,7 +11468,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B49A23-6CD1-324B-A154-3B40276FF050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11510,7 +11501,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11540,7 +11537,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11575,7 +11578,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11607,7 +11616,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11639,7 +11654,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11671,7 +11692,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11706,7 +11733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11736,7 +11769,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11766,7 +11805,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11801,7 +11846,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12081,19 +12132,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12119,7 +12170,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12145,7 +12196,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12174,7 +12225,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12203,7 +12254,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12232,7 +12283,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -12252,7 +12303,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12260,7 +12311,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12268,7 +12319,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -12276,7 +12327,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -12284,7 +12335,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -12292,7 +12343,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -12300,12 +12351,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -12322,7 +12373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -12336,12 +12387,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12358,7 +12409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -12381,24 +12432,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -12418,7 +12469,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12458,7 +12509,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12466,7 +12517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12507,7 +12558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12545,7 +12596,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -12565,12 +12616,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -12590,12 +12641,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -12624,21 +12675,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12661,7 +12712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -12681,12 +12732,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -12706,7 +12757,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -12726,12 +12777,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -12754,7 +12805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -12774,12 +12825,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -12799,7 +12850,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -12819,12 +12870,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12847,7 +12898,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20">
         <f xml:space="preserve"> 1/0.979871</f>
         <v>1.0205424999821404</v>
@@ -12877,21 +12928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12911,7 +12962,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
         <f>AVERAGE(B4:B7)</f>
         <v>6.21041825</v>
@@ -12933,7 +12984,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>7.9996809999999998</v>
       </c>
@@ -12950,7 +13001,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>7.9996809999999998</v>
       </c>
@@ -12967,7 +13018,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>1.0025649999999999</v>
       </c>
@@ -12984,7 +13035,7 @@
         <v>1.0025649999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>7.8397459999999999</v>
       </c>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/data-compression/impl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DBF2C-FC95-CC4E-8220-BA0DF0A05B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -197,12 +196,20 @@
     <t>compress ratio</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>execution time (65536, iteration = 1000, clusters = 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">execution time </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,6 +657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1100,6 +1108,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2691,6 +2700,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3078,6 +3088,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3189,6 +3200,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3574,6 +3586,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3655,6 +3668,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3755,6 +3769,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4161,6 +4176,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4615,6 +4631,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5068,6 +5085,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11792,16 +11810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11833,16 +11851,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12132,19 +12150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12170,7 +12188,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12196,7 +12214,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12225,7 +12243,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12254,7 +12272,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12283,7 +12301,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -12303,7 +12321,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12311,7 +12329,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12319,7 +12337,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -12327,7 +12345,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -12335,7 +12353,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12361,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -12351,12 +12369,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -12373,7 +12391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -12387,12 +12405,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12409,7 +12427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -12432,24 +12450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -12469,7 +12487,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12489,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12509,7 +12527,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12517,7 +12535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12558,7 +12576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12596,7 +12614,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -12616,12 +12634,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -12641,12 +12659,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -12675,21 +12693,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12712,7 +12730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -12732,12 +12750,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -12757,7 +12775,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -12777,12 +12795,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -12805,7 +12823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -12825,12 +12843,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -12850,7 +12868,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -12870,12 +12888,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12898,7 +12916,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <f xml:space="preserve"> 1/0.979871</f>
         <v>1.0205424999821404</v>
@@ -12917,6 +12935,153 @@
       </c>
       <c r="G20">
         <v>1.359143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>596.92707900000005</v>
+      </c>
+      <c r="C24">
+        <v>600.92527700000005</v>
+      </c>
+      <c r="D24">
+        <v>601.79209100000003</v>
+      </c>
+      <c r="E24">
+        <v>608.63549899999998</v>
+      </c>
+      <c r="F24">
+        <v>599.60246299999994</v>
+      </c>
+      <c r="G24">
+        <v>602.11321499999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D27">
+        <v>1E-4</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.01</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E28">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F28">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="G28">
+        <v>1.042E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C32">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D32">
+        <v>1E-4</v>
+      </c>
+      <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2.4117739999999999</v>
+      </c>
+      <c r="C33">
+        <v>2.4771740000000002</v>
+      </c>
+      <c r="D33">
+        <v>2.71556</v>
+      </c>
+      <c r="E33">
+        <v>2.6130900000000001</v>
+      </c>
+      <c r="F33">
+        <v>2.954205</v>
+      </c>
+      <c r="G33">
+        <v>3.0165920000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12928,21 +13093,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12962,7 +13127,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>AVERAGE(B4:B7)</f>
         <v>6.21041825</v>
@@ -12984,7 +13149,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>7.9996809999999998</v>
       </c>
@@ -13001,7 +13166,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>7.9996809999999998</v>
       </c>
@@ -13018,7 +13183,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.0025649999999999</v>
       </c>
@@ -13035,7 +13200,7 @@
         <v>1.0025649999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>7.8397459999999999</v>
       </c>
@@ -13050,6 +13215,54 @@
       </c>
       <c r="F7">
         <v>7.8397459999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4.2609000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.2356</v>
+      </c>
+      <c r="D11">
+        <v>0.26866699999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.31279600000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.267152</v>
+      </c>
+      <c r="G11">
+        <v>0.26097100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -202,6 +202,26 @@
   </si>
   <si>
     <t xml:space="preserve">execution time </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-16</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2700,7 +2720,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3088,7 +3107,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3200,7 +3218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3586,7 +3603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3668,7 +3684,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3769,7 +3784,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4176,7 +4190,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11851,16 +11864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12696,8 +12709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -13094,10 +13107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -13263,6 +13276,40 @@
       </c>
       <c r="G11">
         <v>0.26097100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>4.2609000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.27939599999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.21291599999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.18334600000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.553126</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1089,6 +1089,959 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Gosa (65536 data, deviation from means)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.042E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDBD-438B-BAFD-09BCE00BB78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1304023199"/>
+        <c:axId val="1304036095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1304023199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45642935258092737"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304036095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304036095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.37849919801691456"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304023199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compress ratio (65536 data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4117739999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4771740000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.71556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6130900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.954205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0165920000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8E5-4EEE-9A40-53BBE33FDDC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1312254015"/>
+        <c:axId val="1312262751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1312254015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46965857392825899"/>
+              <c:y val="0.91571741032370957"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312262751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1312262751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.3525619714202391"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312254015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5626,6 +6579,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6953,6 +7986,1012 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11857,6 +13896,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12709,8 +14808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -13110,7 +15209,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE84B12-8561-D547-AA47-DA4BB4EE4149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6860" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -17,11 +18,12 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -224,12 +226,20 @@
     <t>c-16</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>compress_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -677,7 +687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1129,7 +1138,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,7 +1227,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1633,7 +1640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2081,7 +2087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5597,7 +5602,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6051,7 +6055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13911,7 +13914,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13941,7 +13950,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14262,19 +14277,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -14300,7 +14315,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14326,7 +14341,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -14355,7 +14370,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14384,7 +14399,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14413,7 +14428,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -14433,7 +14448,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14441,7 +14456,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14449,7 +14464,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -14457,7 +14472,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -14465,7 +14480,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -14473,7 +14488,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -14481,12 +14496,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -14503,7 +14518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>50.246116000000001</v>
       </c>
@@ -14517,12 +14532,12 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -14539,7 +14554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -14562,24 +14577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -14599,7 +14614,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -14619,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -14639,7 +14654,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -14647,7 +14662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -14688,7 +14703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -14726,7 +14741,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -14746,12 +14761,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -14771,12 +14786,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -14805,21 +14820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -14842,7 +14857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -14862,12 +14877,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -14887,7 +14902,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -14907,12 +14922,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -14935,7 +14950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -14955,12 +14970,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -14980,7 +14995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -15000,12 +15015,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -15028,7 +15043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20">
         <f xml:space="preserve"> 1/0.979871</f>
         <v>1.0205424999821404</v>
@@ -15049,12 +15064,12 @@
         <v>1.359143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -15077,7 +15092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="B24">
         <v>596.92707900000005</v>
       </c>
@@ -15097,12 +15112,12 @@
         <v>602.11321499999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -15125,7 +15140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -15148,12 +15163,12 @@
         <v>1.042E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -15176,7 +15191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>2.4117739999999999</v>
       </c>
@@ -15205,21 +15220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -15239,7 +15254,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <f>AVERAGE(B4:B7)</f>
         <v>6.21041825</v>
@@ -15261,7 +15276,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>7.9996809999999998</v>
       </c>
@@ -15278,7 +15293,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>7.9996809999999998</v>
       </c>
@@ -15295,7 +15310,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>1.0025649999999999</v>
       </c>
@@ -15312,7 +15327,7 @@
         <v>1.0025649999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>7.8397459999999999</v>
       </c>
@@ -15329,12 +15344,12 @@
         <v>7.8397459999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -15357,7 +15372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -15377,7 +15392,7 @@
         <v>0.26097100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -15394,7 +15409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -15409,6 +15424,56 @@
       </c>
       <c r="F13">
         <v>1.553126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15">
+        <v>2.2270000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.8202000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16">
+        <v>1.9782000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.2936000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.4346E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>2.6015E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.0252999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <f>SUM(D15:D18)</f>
+        <v>8.6527000000000007E-2</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E15:E18)</f>
+        <v>0.105737</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE84B12-8561-D547-AA47-DA4BB4EE4149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3AA4-57B2-D447-ADC0-01F2DA1773EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="1940" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17020" yWindow="4440" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">fftss!$A$21:$A$23</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">fftss!$B$21:$B$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -232,6 +235,18 @@
   </si>
   <si>
     <t>total_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 procs, abs error bound = 0.000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c (incl. compress)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c (no compress)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2444,6 +2459,438 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="975322240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fftss!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c (incl. compress)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c (no compress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fftss!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2609000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21291599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8682000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-036F-9D4D-857F-16DD5146B358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1540834384"/>
+        <c:axId val="1540870512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1540834384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>uc = uncompressed,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> c = compressed</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.25590966754155731"/>
+              <c:y val="0.90743037328667253"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540870512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540870512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.40692111402741327"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540834384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6662,6 +7109,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8995,6 +9482,509 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14012,6 +15002,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C06B3C8-0335-EB45-B714-0A18852A1C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15221,10 +16247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A21" sqref="A21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15450,7 +16476,7 @@
         <v>2.2936000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="1:6">
       <c r="D17">
         <v>1.8460000000000001E-2</v>
       </c>
@@ -15458,7 +16484,7 @@
         <v>2.4346E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18">
         <v>2.6015E-2</v>
       </c>
@@ -15466,7 +16492,7 @@
         <v>3.0252999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="1:6">
       <c r="D19">
         <f>SUM(D15:D18)</f>
         <v>8.6527000000000007E-2</v>
@@ -15474,6 +16500,39 @@
       <c r="E19">
         <f>SUM(E15:E18)</f>
         <v>0.105737</v>
+      </c>
+      <c r="F19">
+        <f>D19/E19</f>
+        <v>0.81832281982655086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>4.2609000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>0.21291599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>3.8682000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/data-compression/impl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3AA4-57B2-D447-ADC0-01F2DA1773EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC65BBA-5E69-D148-B9DC-9C016A6D1D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17020" yWindow="4440" windowWidth="28980" windowHeight="16140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="720" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,12 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="fftss" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">fftss!$A$21:$A$23</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">fftss!$B$21:$B$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -80,10 +77,6 @@
   </si>
   <si>
     <t>real gosa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>compressed (sz-mod)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -247,6 +240,14 @@
   </si>
   <si>
     <t>c (no compress)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (sz-mod, float)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (sz-mod, double)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4248,7 +4249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
+                  <c:v>compressed (sz-mod, float)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4314,6 +4315,84 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5518-4071-A1DB-E6864E34AA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod, double)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0995969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538029999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5247310000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.95852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6504889999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE30-FB49-9D67-2CBD1A5ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15323,7 +15402,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1">
         <v>9.9999999999999995E-7</v>
@@ -15369,7 +15448,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>2.8954</v>
@@ -15436,7 +15515,7 @@
         <v>0.98680000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>2.0870359999999999</v>
@@ -15456,7 +15535,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>2.7052529999999999</v>
@@ -15492,7 +15571,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2.8954</v>
@@ -15500,7 +15579,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>5.4892000000000003</v>
@@ -15529,19 +15608,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15565,19 +15644,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15606,8 +15685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15622,7 +15701,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>9.9999999999999995E-7</v>
@@ -15662,7 +15741,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>1.0841719999999999</v>
@@ -15678,19 +15757,39 @@
       </c>
       <c r="F4">
         <v>2.1447829999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>1.0995969999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.1538029999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.5247310000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.95852</v>
+      </c>
+      <c r="F5">
+        <v>2.6504889999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>9.9999999999999995E-7</v>
@@ -15708,25 +15807,25 @@
         <v>0.01</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -15794,7 +15893,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>9.9999999999999995E-7</v>
@@ -15857,30 +15956,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15910,7 +16009,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>9.9999999999999995E-7</v>
@@ -15950,30 +16049,30 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16003,7 +16102,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>9.9999999999999995E-7</v>
@@ -16043,12 +16142,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>9.9999999999999995E-7</v>
@@ -16092,30 +16191,30 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -16145,7 +16244,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>9.9999999999999995E-7</v>
@@ -16191,12 +16290,12 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>9.9999999999999995E-7</v>
@@ -16249,7 +16348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B23"/>
     </sheetView>
   </sheetViews>
@@ -16257,12 +16356,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>9.9999999999999995E-7</v>
@@ -16372,30 +16471,30 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16420,19 +16519,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -16454,10 +16553,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -16508,12 +16607,12 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>4.2609000000000001E-2</v>
@@ -16521,7 +16620,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>0.21291599999999999</v>
@@ -16529,7 +16628,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>3.8682000000000001E-2</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC65BBA-5E69-D148-B9DC-9C016A6D1D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914FCA9-97D4-C344-8159-CB6CEBCFAFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="720" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2440" windowWidth="28980" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -250,12 +250,24 @@
     <t>compressed (sz-mod, double)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>sz-mod-0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sz-mod-0.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +296,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -318,9 +338,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -14594,16 +14615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341502</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45455</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862202</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>759543</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121656</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302343</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>70856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14630,16 +14651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>622026</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>545826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>305621</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70718</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229421</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14666,16 +14687,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15385,8 +15406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E21"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -15622,6 +15643,15 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16">
@@ -15637,12 +15667,32 @@
         <v>57.471921000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <v>59.392279000000002</v>
+      </c>
+      <c r="D17">
+        <v>62.361249999999998</v>
+      </c>
+      <c r="E17">
+        <v>59.768925000000003</v>
+      </c>
+      <c r="F17">
+        <v>59.029927999999998</v>
+      </c>
+      <c r="G17">
+        <v>60.659789000000004</v>
+      </c>
+      <c r="H17">
+        <v>61.856563999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -15659,7 +15709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -15685,7 +15735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914FCA9-97D4-C344-8159-CB6CEBCFAFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC5610-7AE2-7647-BCCF-B1E715BCA391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2440" windowWidth="28980" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="1780" windowWidth="28980" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>sz-mod-0.00001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sz-mod-0.0000001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -719,456 +715,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>compress ratio (iteration = 1000, clusters = 1000)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'k-means'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'k-means'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'k-means'!$B$20:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0205424999821404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.019641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.036257</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.059337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.156326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.359143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-863B-409E-8C94-8FE1399EAFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1138082288"/>
-        <c:axId val="1138082704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1138082288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44020713035870518"/>
-              <c:y val="0.90182852143482062"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1138082704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1138082704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Compression ratio</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="8.3333333333333332E-3"/>
-              <c:y val="0.29895049577136196"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1138082288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>Gosa (65536 data, deviation from means)</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -1636,7 +1182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2084,7 +1630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2529,7 +2075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3705,442 +3251,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>CPU Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>himeno!$B$15:$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>uncompressed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sz-mod-0.0000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sz-mod-0.000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sz-mod-0.00001</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$B$16:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50.246116000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.305459999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.922677999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.471921000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22AB-4B81-848B-7D9B18E0BD41}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1279226655"/>
-        <c:axId val="1279234143"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1279226655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.43705424321959757"/>
-              <c:y val="0.90182852143482062"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1279234143"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1279234143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>cpu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-                  <a:t> time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="8.3333333333333332E-3"/>
-              <c:y val="0.37302456984543603"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1279226655"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>compression ratio</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -4678,7 +3788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5174,7 +4284,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5655,7 +4765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6109,7 +5219,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6562,7 +5672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7009,6 +6119,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compress ratio (iteration = 1000, clusters = 1000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0205424999821404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.019641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.059337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.156326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.359143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863B-409E-8C94-8FE1399EAFA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1138082288"/>
+        <c:axId val="1138082704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1138082288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44020713035870518"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138082704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.29895049577136196"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7170,46 +6730,6 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10084,8 +9604,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10587,8 +10107,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11090,7 +10610,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11593,7 +11113,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12096,7 +11616,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12599,7 +12119,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13102,7 +12622,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13605,7 +13125,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14108,523 +13628,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>862202</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185155</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>608202</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>302343</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>70856</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14651,16 +13668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>545826</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406126</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>229421</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19918</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89721</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14680,42 +13697,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15407,7 +14388,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -15641,58 +14622,41 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16">
-        <v>50.246116000000001</v>
+        <v>59.392279000000002</v>
       </c>
       <c r="C16">
-        <v>55.305459999999997</v>
+        <v>60.581772000000001</v>
       </c>
       <c r="D16">
-        <v>52.922677999999998</v>
+        <v>59.844496999999997</v>
       </c>
       <c r="E16">
-        <v>57.471921000000002</v>
+        <v>60.232497000000002</v>
+      </c>
+      <c r="F16">
+        <v>59.970162000000002</v>
+      </c>
+      <c r="G16">
+        <v>60.722251999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="B17">
-        <v>59.392279000000002</v>
-      </c>
-      <c r="D17">
-        <v>62.361249999999998</v>
-      </c>
-      <c r="E17">
-        <v>59.768925000000003</v>
-      </c>
-      <c r="F17">
-        <v>59.029927999999998</v>
-      </c>
-      <c r="G17">
-        <v>60.659789000000004</v>
-      </c>
-      <c r="H17">
-        <v>61.856563999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -15709,7 +14673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -15791,7 +14755,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>1.0841719999999999</v>
@@ -15811,7 +14775,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1.0995969999999999</v>
@@ -15831,10 +14795,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -15860,22 +14824,22 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16006,7 +14970,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -16014,22 +14978,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16099,7 +15063,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16107,22 +15071,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16192,7 +15156,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -16241,7 +15205,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -16249,22 +15213,22 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -16340,7 +15304,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -16406,7 +15370,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -16521,7 +15485,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16529,22 +15493,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16569,19 +15533,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -16603,10 +15567,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -16657,12 +15621,12 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>4.2609000000000001E-2</v>
@@ -16670,7 +15634,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>0.21291599999999999</v>
@@ -16678,7 +15642,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>3.8682000000000001E-2</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC5610-7AE2-7647-BCCF-B1E715BCA391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6EF95-24EC-6244-A4AF-04E002CBE2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1780" windowWidth="28980" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="3960" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
     <sheet name="ping-pong" sheetId="2" r:id="rId2"/>
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
-    <sheet name="fftss" sheetId="4" r:id="rId4"/>
+    <sheet name="k-means(test)" sheetId="5" r:id="rId4"/>
+    <sheet name="k-means(obs_info)" sheetId="6" r:id="rId5"/>
+    <sheet name="fftss" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +258,14 @@
   </si>
   <si>
     <t>sz-mod-0.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (100000, iteration = 1000, clusters = 100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (100000, iteration = 1000, clusters = 1000)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14387,7 +14397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
@@ -14962,8 +14972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15359,6 +15369,498 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F16A6CE-46E7-D546-BCF2-FDFB0D886630}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3">
+        <v>17.508977999999999</v>
+      </c>
+      <c r="C3">
+        <v>18.051579</v>
+      </c>
+      <c r="D3">
+        <v>18.916996000000001</v>
+      </c>
+      <c r="E3">
+        <v>18.005952000000001</v>
+      </c>
+      <c r="F3">
+        <v>18.438917</v>
+      </c>
+      <c r="G3">
+        <v>17.999881999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="E7">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="F7">
+        <v>7.7999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>1.1000529999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.676909</v>
+      </c>
+      <c r="D12">
+        <v>2.7701730000000002</v>
+      </c>
+      <c r="E12">
+        <v>6.6116710000000003</v>
+      </c>
+      <c r="F12">
+        <v>6.6116710000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17">
+        <v>167.09126599999999</v>
+      </c>
+      <c r="C17">
+        <v>171.21648300000001</v>
+      </c>
+      <c r="D17">
+        <v>167.42308499999999</v>
+      </c>
+      <c r="E17">
+        <v>166.890038</v>
+      </c>
+      <c r="F17">
+        <v>169.91999300000001</v>
+      </c>
+      <c r="G17">
+        <v>166.793948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D21">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="E21">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="F21">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>1E-4</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <v>1.5219180000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.7388219999999999</v>
+      </c>
+      <c r="D26">
+        <v>6.6444130000000001</v>
+      </c>
+      <c r="E26">
+        <v>7.835483</v>
+      </c>
+      <c r="F26">
+        <v>7.835483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4BC53-861A-4F44-A625-5CE21B6F2D0F}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>1E-4</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6EF95-24EC-6244-A4AF-04E002CBE2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A06A8-55A6-514A-A58A-5687AAD8B5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="3960" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>execution time (100000, iteration = 1000, clusters = 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (100000, iteration = 1000, clusters = 100, procs = 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (100000, iteration = 1000, clusters = 1000, procs = 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c-0.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15668,20 +15680,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4BC53-861A-4F44-A625-5CE21B6F2D0F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -15703,13 +15715,39 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>1168.7577369999999</v>
+      </c>
+      <c r="C3">
+        <v>1169.4037599999999</v>
+      </c>
+      <c r="D3">
+        <v>1169.8979019999999</v>
+      </c>
+      <c r="E3">
+        <v>1169.5013759999999</v>
+      </c>
+      <c r="F3">
+        <v>1171.559651</v>
+      </c>
+      <c r="G3">
+        <v>1168.2831980000001</v>
+      </c>
+      <c r="H3">
+        <v>1173.325169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -15732,17 +15770,35 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="G7">
+        <v>8.1089999999999999E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -15765,12 +15821,32 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.0032939999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.0033559999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.000604</v>
+      </c>
+      <c r="F12">
+        <v>1.0286679999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.315936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A06A8-55A6-514A-A58A-5687AAD8B5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364D92A-5F5A-1A41-B676-3F6E13D97A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="3960" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="4200" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="himeno" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="k-means(test)" sheetId="5" r:id="rId4"/>
     <sheet name="k-means(obs_info)" sheetId="6" r:id="rId5"/>
-    <sheet name="fftss" sheetId="4" r:id="rId6"/>
+    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
+    <sheet name="fftss" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -269,15 +270,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>execution time (100000, iteration = 1000, clusters = 100, procs = 4)</t>
+    <t>c-0.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>execution time (100000, iteration = 1000, clusters = 1000, procs = 16)</t>
+    <t>compress ratio (iteration = 1000, clusters = 100)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c-0.1</t>
+    <t>execution time (2366316, iteration = 1000, clusters = 100, procs = 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (2366316, iteration = 1000, clusters = 1000, procs = 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (4386200, iteration = 1000, clusters = 100, procs = 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execution time (4386200, iteration = 1000, clusters = 1000, procs = 16)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15385,7 +15398,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15488,7 +15501,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -15682,15 +15695,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4BC53-861A-4F44-A625-5CE21B6F2D0F}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -15716,7 +15729,7 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15795,7 +15808,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15843,7 +15856,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15937,6 +15950,264 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5ED9B-4ACE-2440-B1F1-17CD48003D82}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="C3">
+        <v>2159.9150559999998</v>
+      </c>
+      <c r="D3">
+        <v>2220.9988400000002</v>
+      </c>
+      <c r="E3">
+        <v>2105.8497699999998</v>
+      </c>
+      <c r="F3">
+        <v>2205.4593639999998</v>
+      </c>
+      <c r="G3">
+        <v>2172.3178710000002</v>
+      </c>
+      <c r="H3">
+        <v>2165.6020990000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E7">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>1.0000180000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.0004420000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.115305</v>
+      </c>
+      <c r="E12">
+        <v>1.7523679999999999</v>
+      </c>
+      <c r="F12">
+        <v>6.6116710000000003</v>
+      </c>
+      <c r="G12">
+        <v>6.6116710000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>1E-4</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364D92A-5F5A-1A41-B676-3F6E13D97A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5845099F-C8AF-8143-B90F-0E21728BC522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4200" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="1680" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="himeno" sheetId="1" r:id="rId1"/>
-    <sheet name="ping-pong" sheetId="2" r:id="rId2"/>
+    <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
+    <sheet name="himeno" sheetId="1" r:id="rId2"/>
     <sheet name="k-means" sheetId="3" r:id="rId3"/>
     <sheet name="k-means(test)" sheetId="5" r:id="rId4"/>
     <sheet name="k-means(obs_info)" sheetId="6" r:id="rId5"/>
@@ -412,7 +412,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -422,6 +478,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -432,26 +499,248 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5518-4071-A1DB-E6864E34AA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0841719999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.128997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4184049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.722637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1447829999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5518-4071-A1DB-E6864E34AA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod, double)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0995969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538029999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5247310000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.95852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6504889999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE30-FB49-9D67-2CBD1A5ACA5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="942875936"/>
+        <c:axId val="942875104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="942875936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -459,117 +748,52 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>absErrBound</a:t>
+                </a:r>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>himeno!$A$7:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>sz (byte)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sz (bit)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sz-mod (byte)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sz-mod (bit)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ueno-performance</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ueno-area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$B$7:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.7763</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.402900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0692999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98680000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B4A-C34F-8EAB-C6B3CC1E08C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="420509008"/>
-        <c:axId val="244229760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="420509008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44020713035870518"/>
+              <c:y val="0.79592519685039353"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -607,7 +831,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244229760"/>
+        <c:crossAx val="942875104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244229760"/>
+        <c:axId val="942875104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +890,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420509008"/>
+        <c:crossAx val="942875936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -678,6 +902,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2577,1287 +2832,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>compression ratio</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz (byte)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.0248469999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6884130000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7763</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.944709</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.96469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz (bit)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.1491579999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.466395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.402900000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.648683999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.012912</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz-mod (byte)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0870359999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6002749999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5443549999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8102360000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz-mod (bit)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.7052529999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2724469999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7637509999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.947824000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="949448928"/>
-        <c:axId val="949451424"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="949448928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound (1eN)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4053597987751531"/>
-              <c:y val="0.8005548264800233"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="949451424"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="949451424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="949448928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>compression ratio</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uncompressed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5518-4071-A1DB-E6864E34AA70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod, float)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0841719999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.128997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4184049999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.722637</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1447829999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5518-4071-A1DB-E6864E34AA70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod, double)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0995969999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1538029999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5247310000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.95852</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6504889999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE30-FB49-9D67-2CBD1A5ACA5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="942875936"/>
-        <c:axId val="942875104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="942875936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44020713035870518"/>
-              <c:y val="0.79592519685039353"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="942875104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="942875104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="942875936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>Execution</a:t>
             </a:r>
             <a:r>
@@ -4319,7 +3293,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4800,7 +3774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5217,6 +4191,1032 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>himeno!$A$7:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sz (byte)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sz (bit)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sz-mod (byte)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sz-mod (bit)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ueno-performance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ueno-area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.402900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B4A-C34F-8EAB-C6B3CC1E08C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="420509008"/>
+        <c:axId val="244229760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420509008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244229760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244229760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420509008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz (byte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0248469999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6884130000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.944709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz (bit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1491579999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.466395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.402900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.648683999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.012912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz-mod (byte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0870359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6002749999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5443549999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8102360000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz-mod (bit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7052529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2724469999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7637509999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.947824000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="949448928"/>
+        <c:axId val="949451424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="949448928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound (1eN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4053597987751531"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949451424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949451424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949448928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9640,7 +9640,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11652,7 +11652,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13664,83 +13664,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>608202</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>429343</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134356</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406126</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89721</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>108818</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13887,6 +13810,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>608202</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134356</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406126</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89721</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108818</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14419,6 +14419,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>1.0841719999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.128997</v>
+      </c>
+      <c r="D4">
+        <v>1.4184049999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.722637</v>
+      </c>
+      <c r="F4">
+        <v>2.1447829999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>1.0995969999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.1538029999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.5247310000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.95852</v>
+      </c>
+      <c r="F5">
+        <v>2.6504889999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7">
+        <v>1E-4</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.9380000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>9.9799999999999997E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.4549999999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.637E-3</v>
+      </c>
+      <c r="I8">
+        <v>8.3371000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>7.1703000000000003E-2</v>
+      </c>
+      <c r="K8">
+        <v>6.7229999999999998E-2</v>
+      </c>
+      <c r="L8">
+        <v>6.1108000000000003E-2</v>
+      </c>
+      <c r="M8">
+        <v>5.7821999999999998E-2</v>
+      </c>
+      <c r="N8">
+        <v>4.2465000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="C9">
+        <v>1.0679999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>8.1800000000000004E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.106E-3</v>
+      </c>
+      <c r="F9">
+        <v>2.826E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D12">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D14">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="E14">
+        <v>1.6969999999999999E-3</v>
+      </c>
+      <c r="F14">
+        <v>6.6490000000000004E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -14720,269 +14983,6 @@
       </c>
       <c r="E21" s="1">
         <v>3.5977960000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D2">
-        <v>1E-4</v>
-      </c>
-      <c r="E2">
-        <v>1E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>1.0841719999999999</v>
-      </c>
-      <c r="C4">
-        <v>1.128997</v>
-      </c>
-      <c r="D4">
-        <v>1.4184049999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.722637</v>
-      </c>
-      <c r="F4">
-        <v>2.1447829999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>1.0995969999999999</v>
-      </c>
-      <c r="C5">
-        <v>1.1538029999999999</v>
-      </c>
-      <c r="D5">
-        <v>1.5247310000000001</v>
-      </c>
-      <c r="E5">
-        <v>1.95852</v>
-      </c>
-      <c r="F5">
-        <v>2.6504889999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D7">
-        <v>1E-4</v>
-      </c>
-      <c r="E7">
-        <v>1E-3</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="C8">
-        <v>2.9380000000000001E-3</v>
-      </c>
-      <c r="D8">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="E8">
-        <v>1.4549999999999999E-3</v>
-      </c>
-      <c r="F8">
-        <v>2.637E-3</v>
-      </c>
-      <c r="I8">
-        <v>8.3371000000000001E-2</v>
-      </c>
-      <c r="J8">
-        <v>7.1703000000000003E-2</v>
-      </c>
-      <c r="K8">
-        <v>6.7229999999999998E-2</v>
-      </c>
-      <c r="L8">
-        <v>6.1108000000000003E-2</v>
-      </c>
-      <c r="M8">
-        <v>5.7821999999999998E-2</v>
-      </c>
-      <c r="N8">
-        <v>4.2465000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8.8900000000000003E-4</v>
-      </c>
-      <c r="C9">
-        <v>1.0679999999999999E-3</v>
-      </c>
-      <c r="D9">
-        <v>8.1800000000000004E-4</v>
-      </c>
-      <c r="E9">
-        <v>1.106E-3</v>
-      </c>
-      <c r="F9">
-        <v>2.826E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D12">
-        <v>1E-4</v>
-      </c>
-      <c r="E12">
-        <v>1E-3</v>
-      </c>
-      <c r="F12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D14">
-        <v>8.5000000000000006E-5</v>
-      </c>
-      <c r="E14">
-        <v>1.6969999999999999E-3</v>
-      </c>
-      <c r="F14">
-        <v>6.6490000000000004E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15953,7 +15953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5ED9B-4ACE-2440-B1F1-17CD48003D82}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -16211,8 +16211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5845099F-C8AF-8143-B90F-0E21728BC522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91583F-B584-1C41-B980-E7B7D5ECCE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1680" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2280" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,27 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
     <sheet name="fftss" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'k-means(test)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'k-means(num_plasma)'!$A$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'k-means(num_plasma)'!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'k-means(num_plasma)'!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'k-means(test)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'k-means(test)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'k-means(test)'!$A$7</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">'k-means(num_plasma)'!$A$11</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">'k-means(num_plasma)'!$A$12</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">'k-means(num_plasma)'!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">'k-means(num_plasma)'!$B$12:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1955,6 +1976,2732 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> from means</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34493044619422575"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(test)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(test)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(test)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7999999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.39445610965296013"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(test)'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(test)'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(test)'!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1000529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.676909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7701730000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6116710000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6116710000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.25556722076407118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ja-JP"/>
+              <a:t>Variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en" altLang="ja-JP" baseline="0"/>
+              <a:t> from means</a:t>
+            </a:r>
+            <a:endParaRPr lang="en" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34493044619422575"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(obs_info)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(obs_info)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(obs_info)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4100000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.39445610965296013"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(obs_info)'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(obs_info)'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(obs_info)'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0032939999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0033559999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.000604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0286679999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.315936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.24167833187518226"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ja-JP"/>
+              <a:t>variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en" altLang="ja-JP" baseline="0"/>
+              <a:t> from means</a:t>
+            </a:r>
+            <a:endParaRPr lang="en" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34493044619422575"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(num_plasma)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(num_plasma)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(num_plasma)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8320000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.39445610965296013"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means(num_plasma)'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means(num_plasma)'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means(num_plasma)'!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0000180000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0004420000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.115305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7523679999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6116710000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-734A-BF71-F3145EB01446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55947392"/>
+        <c:axId val="55949024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4571944444444444"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55949024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55949024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.24630796150481193"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>compression ratio</a:t>
             </a:r>
           </a:p>
@@ -2365,7 +5112,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6804,6 +9551,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9137,6 +12124,3024 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14084,6 +20089,237 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1AD0F1-239B-EA46-8DFD-23346090E4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EA3413-F89E-D944-8FAE-3723A0C65F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CC7905-79DA-4E44-8F82-21D509226C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1F54EE-1FED-4744-B66C-65615DB02046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4036365A-CFE7-EF46-B261-1EB5DBF91A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B461563-D1B2-F241-9890-A9E8961E9206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -14418,12 +20654,1272 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15397,8 +22893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F16A6CE-46E7-D546-BCF2-FDFB0D886630}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15688,6 +23184,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15696,7 +23193,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15946,6 +23443,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15953,8 +23451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5ED9B-4ACE-2440-B1F1-17CD48003D82}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16204,6 +23702,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16211,7 +23710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91583F-B584-1C41-B980-E7B7D5ECCE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E6BDA-5FA5-C44F-9F38-F0826AF2DA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2280" windowWidth="28980" windowHeight="18400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="4580" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -21,27 +21,6 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
     <sheet name="fftss" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'k-means(test)'!$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'k-means(num_plasma)'!$A$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'k-means(num_plasma)'!$B$11:$F$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'k-means(num_plasma)'!$B$12:$F$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'k-means(test)'!$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'k-means(test)'!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'k-means(test)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'k-means(test)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'k-means(test)'!$A$7</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'k-means(num_plasma)'!$A$11</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'k-means(num_plasma)'!$A$12</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">'k-means(num_plasma)'!$B$11:$F$11</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">'k-means(num_plasma)'!$B$12:$F$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -263,14 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>compressed (sz-mod, float)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>compressed (sz-mod, double)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sz-mod-0.0001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -312,6 +283,22 @@
   </si>
   <si>
     <t>execution time (4386200, iteration = 1000, clusters = 1000, procs = 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (bit, float)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (byte, float)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (byte, double)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (bit, double)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,7 +570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>compressed (sz-mod, float)</c:v>
+                  <c:v>compressed (byte, float)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -661,7 +648,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>compressed (sz-mod, double)</c:v>
+                  <c:v>compressed (byte, double)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,6 +714,162 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE30-FB49-9D67-2CBD1A5ACA5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bit, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2820530000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5650759999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3836909999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2225799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7376560000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6683-5848-AA79-0446406B7B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bit, double)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3146960000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.783909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6879010000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3996289999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6683-5848-AA79-0446406B7B11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -925,6 +1068,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6788486407317241E-2"/>
+          <c:y val="0.83260290494322786"/>
+          <c:w val="0.95432624915108244"/>
+          <c:h val="0.14113888936749427"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5630,7 +5783,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ping-pong'!$A$8</c:f>
+              <c:f>'ping-pong'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5651,7 +5804,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ping-pong'!$B$7:$F$7</c:f>
+              <c:f>'ping-pong'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5675,7 +5828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ping-pong'!$B$8:$F$8</c:f>
+              <c:f>'ping-pong'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5708,7 +5861,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ping-pong'!$A$9</c:f>
+              <c:f>'ping-pong'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5729,7 +5882,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ping-pong'!$B$7:$F$7</c:f>
+              <c:f>'ping-pong'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5753,7 +5906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ping-pong'!$B$9:$F$9</c:f>
+              <c:f>'ping-pong'!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6096,7 +6249,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ping-pong'!$A$14</c:f>
+              <c:f>'ping-pong'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6175,7 +6328,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'ping-pong'!$B$12:$F$12</c:f>
+              <c:f>'ping-pong'!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6199,7 +6352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:f>'ping-pong'!$B$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -19673,15 +19826,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>96531</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>49123</xdr:rowOff>
+      <xdr:colOff>83831</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>83829</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>93573</xdr:rowOff>
+      <xdr:colOff>71129</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19748,16 +19901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>44150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>169806</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>655075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>62724</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19787,15 +19940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21916,14 +22069,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21974,7 +22128,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>1.0841719999999999</v>
@@ -21994,7 +22148,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>1.0995969999999999</v>
@@ -22014,7 +22168,22 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>1.2820530000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.5650759999999999</v>
+      </c>
+      <c r="D6">
+        <v>2.3836909999999998</v>
+      </c>
+      <c r="E6">
+        <v>3.2225799999999998</v>
+      </c>
+      <c r="F6">
+        <v>4.7376560000000003</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -22022,22 +22191,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>9.9999999999999995E-7</v>
+        <v>2.3146960000000001</v>
       </c>
       <c r="C7">
-        <v>1.0000000000000001E-5</v>
+        <v>2.783909</v>
       </c>
       <c r="D7">
-        <v>1E-4</v>
+        <v>4.1981999999999999</v>
       </c>
       <c r="E7">
-        <v>1E-3</v>
+        <v>5.6879010000000001</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>8.3996289999999991</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -22062,24 +22231,6 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="C8">
-        <v>2.9380000000000001E-3</v>
-      </c>
-      <c r="D8">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="E8">
-        <v>1.4549999999999999E-3</v>
-      </c>
-      <c r="F8">
-        <v>2.637E-3</v>
-      </c>
       <c r="I8">
         <v>8.3371000000000001E-2</v>
       </c>
@@ -22101,71 +22252,116 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8.8900000000000003E-4</v>
-      </c>
-      <c r="C9">
-        <v>1.0679999999999999E-3</v>
-      </c>
-      <c r="D9">
-        <v>8.1800000000000004E-4</v>
-      </c>
-      <c r="E9">
-        <v>1.106E-3</v>
-      </c>
-      <c r="F9">
-        <v>2.826E-3</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D10">
+        <v>1E-4</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.9380000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>9.9799999999999997E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.4549999999999999E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.637E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>9.9999999999999995E-7</v>
+        <v>8.8900000000000003E-4</v>
       </c>
       <c r="C12">
-        <v>1.0000000000000001E-5</v>
+        <v>1.0679999999999999E-3</v>
       </c>
       <c r="D12">
-        <v>1E-4</v>
+        <v>8.1800000000000004E-4</v>
       </c>
       <c r="E12">
-        <v>1E-3</v>
+        <v>1.106E-3</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>8</v>
+        <v>2.826E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>1.6969999999999999E-3</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <v>6.6490000000000004E-3</v>
       </c>
     </row>
@@ -22416,13 +22612,13 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22901,7 +23097,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22997,7 +23193,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -23042,7 +23238,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -23200,7 +23396,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -23226,7 +23422,7 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -23305,7 +23501,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -23353,7 +23549,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -23451,7 +23647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5ED9B-4ACE-2440-B1F1-17CD48003D82}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F12"/>
     </sheetView>
   </sheetViews>
@@ -23459,7 +23655,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -23485,7 +23681,7 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -23564,7 +23760,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -23612,7 +23808,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8">

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E6BDA-5FA5-C44F-9F38-F0826AF2DA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC0E9E-991C-0146-9147-B620844DEE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4580" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="4000" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -22071,8 +22071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22231,6 +22231,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="E8">
+        <f>E6/E4</f>
+        <v>1.8707249408900424</v>
+      </c>
       <c r="I8">
         <v>8.3371000000000001E-2</v>
       </c>
@@ -22253,6 +22257,10 @@
     <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>33</v>
+      </c>
+      <c r="E9">
+        <f>E7/E5</f>
+        <v>2.9041832608296061</v>
       </c>
     </row>
     <row r="10" spans="1:14">

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC0E9E-991C-0146-9147-B620844DEE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A31AF6-57CE-F348-B48E-0325093E0E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="4000" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,18 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
     <sheet name="fftss" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.5" hidden="1">'ping-pong'!$H$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'ping-pong'!$H$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'ping-pong'!$I$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'ping-pong'!$I$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'ping-pong'!$I$9:$N$9</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'ping-pong'!$H$8</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'ping-pong'!$H$9</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'ping-pong'!$I$7:$N$7</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'ping-pong'!$I$8:$N$8</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'ping-pong'!$I$9:$N$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +311,13 @@
   </si>
   <si>
     <t>compressed (bit, double)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compressed (bitwise, float)</t>
+  </si>
+  <si>
+    <t>compressed (bitwise, float)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1179,6 +1198,1356 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'k-means'!$B$10:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c-0.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c-0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c-0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.079129000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.320219999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.743932999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.192960999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.397722000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.168976999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0319-4B7E-80F3-354A96AF7DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="977675360"/>
+        <c:axId val="977677024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="977675360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44654046369203854"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977677024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="977677024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.30010790317876934"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977675360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Gosa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2000000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4414-4A37-B0FC-E3FEE48C461F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1143256848"/>
+        <c:axId val="1143259344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1143256848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48602646544181977"/>
+              <c:y val="0.90277777777777779"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143259344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1143259344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.40080234762321376"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143256848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compress ratio (iteration = 1000, clusters = 1000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'k-means'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'k-means'!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'k-means'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0205424999821404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.019641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.059337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.156326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.359143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863B-409E-8C94-8FE1399EAFA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1138082288"/>
+        <c:axId val="1138082704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1138082288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44020713035870518"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138082704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.29895049577136196"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138082288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>Gosa (65536 data, deviation from means)</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -1646,7 +3015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2094,7 +3463,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2554,7 +3923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3000,7 +4369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3461,7 +4830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3913,7 +5282,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4374,7 +5743,503 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9380000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4549999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.637E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8900000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.106E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.826E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1037903360"/>
+        <c:axId val="1037897536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1037903360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45920713035870514"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037897536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037897536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037903360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4820,7 +6685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5265,7 +7130,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5697,502 +7562,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> time</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uncompressed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$10:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$11:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9380000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9799999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4549999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.637E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$10:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$12:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.8900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0679999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1800000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.106E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.826E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1037903360"/>
-        <c:axId val="1037897536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1037903360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45920713035870514"/>
-              <c:y val="0.8005548264800233"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037897536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1037897536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037903360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6249,11 +7618,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ping-pong'!$A$17</c:f>
+              <c:f>'ping-pong'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
+                  <c:v>compressed (bit, float)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6328,7 +7697,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'ping-pong'!$B$15:$F$15</c:f>
+              <c:f>'ping-pong'!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6352,7 +7721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ping-pong'!$B$17:$F$17</c:f>
+              <c:f>'ping-pong'!$B$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7142,6 +8511,1798 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>float</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>の場合の圧縮率</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(ping-pong</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>アプリ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5271-004F-9E7F-DEEF35350439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (byte, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0841719999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.128997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4184049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.722637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1447829999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5271-004F-9E7F-DEEF35350439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bit, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2820530000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5650759999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3836909999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2225799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7376560000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5271-004F-9E7F-DEEF35350439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bitwise, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3897109999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7084459999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5350459999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3635449999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8682220000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5271-004F-9E7F-DEEF35350439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1150960416"/>
+        <c:axId val="1150962048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1150960416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44814444971925288"/>
+              <c:y val="0.85314039933489993"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150962048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1150962048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>compression</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4553014553014554E-2"/>
+              <c:y val="0.32481620425719038"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150960416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>誤差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bit, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6969999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6490000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B06D-2049-915F-450A63BE74CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bitwise, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6559999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B06D-2049-915F-450A63BE74CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1113258928"/>
+        <c:axId val="1113260560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1113258928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42057633420822393"/>
+              <c:y val="0.81080890930300376"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113260560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1113260560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Gosa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.37358741615631386"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113258928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>実行時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43888888888888894"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ping-pong'!$I$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c-0.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c-0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c-0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$I$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3371000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1703000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7229999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1108000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7821999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2465000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63A1-B34F-ACC8-D7BEE5E9A78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (bitwise, float)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ping-pong'!$I$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>uc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c-0.000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c-0.00001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c-0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c-0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$I$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>6.5965999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7609E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9967999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4509999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1343000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63A1-B34F-ACC8-D7BEE5E9A78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="846862191"/>
+        <c:axId val="846863823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="846862191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846863823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="846863823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.37174722951297756"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846862191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -7445,7 +10606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8117,1356 +11278,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>execution time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'k-means'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'k-means'!$B$10:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>uc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>c-0.000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c-0.00001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>c-0.0001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>c-0.001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>c-0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'k-means'!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>37.079129000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.320219999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.743932999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.192960999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.397722000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.168976999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0319-4B7E-80F3-354A96AF7DB3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="977675360"/>
-        <c:axId val="977677024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="977675360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44654046369203854"/>
-              <c:y val="0.90645815106445027"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977677024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="977677024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>execution</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-                  <a:t> time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.3888888888888888E-2"/>
-              <c:y val="0.30010790317876934"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977675360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Gosa</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'k-means'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'k-means'!$B$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'k-means'!$B$15:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2000000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4414-4A37-B0FC-E3FEE48C461F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1143256848"/>
-        <c:axId val="1143259344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1143256848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48602646544181977"/>
-              <c:y val="0.90277777777777779"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1143259344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1143259344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Gosa</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.3888888888888888E-2"/>
-              <c:y val="0.40080234762321376"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1143256848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>compress ratio (iteration = 1000, clusters = 1000)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'k-means'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'k-means'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'k-means'!$B$20:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0205424999821404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.019641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.036257</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.059337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.156326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.359143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-863B-409E-8C94-8FE1399EAFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1138082288"/>
-        <c:axId val="1138082704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1138082288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44020713035870518"/>
-              <c:y val="0.90182852143482062"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1138082704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1138082704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Compression ratio</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="8.3333333333333332E-3"/>
-              <c:y val="0.29895049577136196"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1138082288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9984,6 +11795,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16300,7 +18231,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16803,7 +18734,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17306,7 +19237,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17809,8 +19740,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18312,7 +20243,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18815,7 +20746,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19318,8 +21249,1517 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19968,6 +23408,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9459C05E-8C10-434A-8CBC-F1DAD8CE2958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D69FD0-2FC7-E34A-9CA3-D584220F7F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0095099-2761-4445-9D83-0CF9EEF7C6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22069,10 +25617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22231,9 +25779,23 @@
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>1.3897109999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.7084459999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.5350459999999999</v>
+      </c>
       <c r="E8">
-        <f>E6/E4</f>
-        <v>1.8707249408900424</v>
+        <v>3.3635449999999998</v>
+      </c>
+      <c r="F8">
+        <v>4.8682220000000003</v>
       </c>
       <c r="I8">
         <v>8.3371000000000001E-2</v>
@@ -22255,122 +25817,162 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="B9">
+        <f>B8/B6</f>
+        <v>1.0839731274760089</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9">
+        <v>6.5965999999999997E-2</v>
+      </c>
+      <c r="K9">
+        <v>5.7609E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.9967999999999997E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.4509999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.1343000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>33</v>
-      </c>
-      <c r="E9">
-        <f>E7/E5</f>
-        <v>2.9041832608296061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D10">
-        <v>1E-4</v>
-      </c>
-      <c r="E10">
-        <v>1E-3</v>
-      </c>
-      <c r="F10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="C11">
-        <v>2.9380000000000001E-3</v>
-      </c>
-      <c r="D11">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="E11">
-        <v>1.4549999999999999E-3</v>
-      </c>
-      <c r="F11">
-        <v>2.637E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>8.8900000000000003E-4</v>
-      </c>
-      <c r="C12">
-        <v>1.0679999999999999E-3</v>
-      </c>
-      <c r="D12">
-        <v>8.1800000000000004E-4</v>
-      </c>
-      <c r="E12">
-        <v>1.106E-3</v>
-      </c>
-      <c r="F12">
-        <v>2.826E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14">
+        <v>1E-4</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>9.9999999999999995E-7</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="C15">
-        <v>1.0000000000000001E-5</v>
+        <v>2.9380000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>1E-4</v>
+        <v>9.9799999999999997E-4</v>
       </c>
       <c r="E15">
-        <v>1E-3</v>
+        <v>1.4549999999999999E-3</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>2.637E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="C16">
+        <v>1.0679999999999999E-3</v>
+      </c>
+      <c r="D16">
+        <v>8.1800000000000004E-4</v>
+      </c>
+      <c r="E16">
+        <v>1.106E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.826E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>1E-4</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>1.6969999999999999E-3</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>6.6490000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D22">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="E22">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>7.6559999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A31AF6-57CE-F348-B48E-0325093E0E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBD653-51FD-534A-8380-B7F16D756038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,6 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
     <sheet name="fftss" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.5" hidden="1">'ping-pong'!$H$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'ping-pong'!$H$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'ping-pong'!$I$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'ping-pong'!$I$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'ping-pong'!$I$9:$N$9</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'ping-pong'!$H$8</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'ping-pong'!$H$9</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'ping-pong'!$I$7:$N$7</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'ping-pong'!$I$8:$N$8</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'ping-pong'!$I$9:$N$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -23266,14 +23254,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83831</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>61823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>71129</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660398</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>106273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23303,16 +23291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>608330</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>553525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>197925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23341,15 +23329,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82250</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>144406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>32775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>274075</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>37324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23379,16 +23367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23416,15 +23404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23452,15 +23440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23487,16 +23475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25619,7 +25607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:N9"/>
     </sheetView>
   </sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBD653-51FD-534A-8380-B7F16D756038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3024" windowWidth="26736" windowHeight="18396" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
-    <sheet name="himeno" sheetId="1" r:id="rId2"/>
-    <sheet name="k-means" sheetId="3" r:id="rId3"/>
-    <sheet name="k-means(test)" sheetId="5" r:id="rId4"/>
-    <sheet name="k-means(obs_info)" sheetId="6" r:id="rId5"/>
-    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId6"/>
-    <sheet name="fftss" sheetId="4" r:id="rId7"/>
+    <sheet name="pingpong(revise)" sheetId="8" r:id="rId2"/>
+    <sheet name="himeno" sheetId="1" r:id="rId3"/>
+    <sheet name="k-means" sheetId="3" r:id="rId4"/>
+    <sheet name="k-means(test)" sheetId="5" r:id="rId5"/>
+    <sheet name="k-means(obs_info)" sheetId="6" r:id="rId6"/>
+    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId7"/>
+    <sheet name="fftss" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -308,11 +308,71 @@
     <t>compressed (bitwise, float)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AEB (1en)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ueno-perf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ueno-area</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uncompressed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comp (bytewise)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comp (bitwise)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w/ diff.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w/o diff.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w/ diff.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gosa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -454,6 +514,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5776,6 +5837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6161,6 +6223,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7565,6 +7628,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7665,6 +7729,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8071,6 +8136,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8542,6 +8608,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9152,6 +9219,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9258,6 +9326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9707,6 +9776,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10211,6 +10281,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23256,13 +23327,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>61823</xdr:rowOff>
+      <xdr:rowOff>8483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660398</xdr:colOff>
+      <xdr:colOff>614678</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>106273</xdr:rowOff>
+      <xdr:rowOff>52933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23440,15 +23511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1187450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>707390</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265430</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23475,16 +23546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25604,17 +25675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:N9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -25826,6 +25898,50 @@
       </c>
       <c r="N9">
         <v>2.1343000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="J10">
+        <f>J8/$I$8</f>
+        <v>0.86004725863909515</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:N11" si="0">K8/$I$8</f>
+        <v>0.80639550922982806</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.73296469995562008</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.69355051516714439</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.50934977390219627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="J11">
+        <f>J9/$I$8</f>
+        <v>0.79123436206834508</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.69099566995717931</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.47939931151119691</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.41393290232814767</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.25600028786988283</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -25972,16 +26088,443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>-6</v>
+      </c>
+      <c r="K2">
+        <v>-5</v>
+      </c>
+      <c r="L2">
+        <v>-4</v>
+      </c>
+      <c r="M2">
+        <v>-3</v>
+      </c>
+      <c r="N2">
+        <v>-2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2">
+        <v>-6</v>
+      </c>
+      <c r="S2">
+        <v>-5</v>
+      </c>
+      <c r="T2">
+        <v>-4</v>
+      </c>
+      <c r="U2">
+        <v>-3</v>
+      </c>
+      <c r="V2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>1.2820530000000001</v>
+      </c>
+      <c r="K3">
+        <v>1.5650759999999999</v>
+      </c>
+      <c r="L3">
+        <v>2.3836909999999998</v>
+      </c>
+      <c r="M3">
+        <v>3.2225799999999998</v>
+      </c>
+      <c r="N3">
+        <v>4.7376560000000003</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>0.85253400000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.85253400000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.85253400000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.85253400000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.85253400000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>1.3897109999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.7084459999999999</v>
+      </c>
+      <c r="L4">
+        <v>2.4200889999999999</v>
+      </c>
+      <c r="M4">
+        <v>3.3625449999999999</v>
+      </c>
+      <c r="N4">
+        <v>4.8682220000000003</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4">
+        <v>0.86004725863909515</v>
+      </c>
+      <c r="S4">
+        <v>0.80639550922982806</v>
+      </c>
+      <c r="T4">
+        <v>0.73296469995562008</v>
+      </c>
+      <c r="U4">
+        <v>0.69355051516714439</v>
+      </c>
+      <c r="V4">
+        <v>0.50934977390219627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>0.93090899999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.93090899999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.93090899999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.93090899999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.93090899999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5">
+        <v>0.79123436206834508</v>
+      </c>
+      <c r="S5">
+        <v>0.69099566995717931</v>
+      </c>
+      <c r="T5">
+        <v>0.47939931151119691</v>
+      </c>
+      <c r="U5">
+        <v>0.41393290232814767</v>
+      </c>
+      <c r="V5">
+        <v>0.25600028786988283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>1.419719</v>
+      </c>
+      <c r="C6">
+        <v>1.75196</v>
+      </c>
+      <c r="D6">
+        <v>2.0221079999999998</v>
+      </c>
+      <c r="E6">
+        <v>2.5354619999999999</v>
+      </c>
+      <c r="F6">
+        <v>3.1054200000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>-6</v>
+      </c>
+      <c r="K6">
+        <v>-5</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>-3</v>
+      </c>
+      <c r="N6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>1.0841719999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.140193</v>
+      </c>
+      <c r="D7">
+        <v>1.4421900000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.7601119999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.2320009999999999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L7">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="M7">
+        <v>1.6969999999999999E-3</v>
+      </c>
+      <c r="N7">
+        <v>6.6490000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>1.3897109999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.7084459999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.4200889999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.3625449999999999</v>
+      </c>
+      <c r="F8">
+        <v>4.8682220000000003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="L8">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="M8">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="N8">
+        <v>7.6559999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10">
+        <v>-5</v>
+      </c>
+      <c r="L10">
+        <v>-4</v>
+      </c>
+      <c r="M10">
+        <v>-3</v>
+      </c>
+      <c r="N10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>8.6914000000000005E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.10253900000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.12585399999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.16101099999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.20300299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.4414000000000002E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.14636199999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.225464</v>
+      </c>
+      <c r="N12">
+        <v>0.272339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>1.6601999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.5391E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.12109399999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.17285200000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.23632800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -26273,406 +26816,6 @@
       </c>
       <c r="E21" s="1">
         <v>3.5977960000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3">
-        <v>3.6736149999999999</v>
-      </c>
-      <c r="C3">
-        <v>3.6474099999999998</v>
-      </c>
-      <c r="D3">
-        <v>3.869971</v>
-      </c>
-      <c r="E3">
-        <v>3.8685670000000001</v>
-      </c>
-      <c r="F3">
-        <v>3.8515999999999999</v>
-      </c>
-      <c r="G3">
-        <v>3.8312430000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D6">
-        <v>1E-4</v>
-      </c>
-      <c r="E6">
-        <v>1E-3</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2.3E-5</v>
-      </c>
-      <c r="F7">
-        <v>3.86E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11">
-        <v>37.079129000000002</v>
-      </c>
-      <c r="C11">
-        <v>36.320219999999999</v>
-      </c>
-      <c r="D11">
-        <v>36.743932999999998</v>
-      </c>
-      <c r="E11">
-        <v>36.192960999999997</v>
-      </c>
-      <c r="F11">
-        <v>35.397722000000002</v>
-      </c>
-      <c r="G11">
-        <v>35.168976999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D14">
-        <v>1E-4</v>
-      </c>
-      <c r="E14">
-        <v>1E-3</v>
-      </c>
-      <c r="F14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1.5699999999999999E-4</v>
-      </c>
-      <c r="E15">
-        <v>2.7E-4</v>
-      </c>
-      <c r="F15">
-        <v>4.2000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D19">
-        <v>1E-4</v>
-      </c>
-      <c r="E19">
-        <v>1E-3</v>
-      </c>
-      <c r="F19">
-        <v>0.01</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20">
-        <f xml:space="preserve"> 1/0.979871</f>
-        <v>1.0205424999821404</v>
-      </c>
-      <c r="C20">
-        <v>1.019641</v>
-      </c>
-      <c r="D20">
-        <v>1.036257</v>
-      </c>
-      <c r="E20">
-        <v>1.059337</v>
-      </c>
-      <c r="F20">
-        <v>1.156326</v>
-      </c>
-      <c r="G20">
-        <v>1.359143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24">
-        <v>596.92707900000005</v>
-      </c>
-      <c r="C24">
-        <v>600.92527700000005</v>
-      </c>
-      <c r="D24">
-        <v>601.79209100000003</v>
-      </c>
-      <c r="E24">
-        <v>608.63549899999998</v>
-      </c>
-      <c r="F24">
-        <v>599.60246299999994</v>
-      </c>
-      <c r="G24">
-        <v>602.11321499999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C27">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D27">
-        <v>1E-4</v>
-      </c>
-      <c r="E27">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E28">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="F28">
-        <v>2.2100000000000001E-4</v>
-      </c>
-      <c r="G28">
-        <v>1.042E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C32">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D32">
-        <v>1E-4</v>
-      </c>
-      <c r="E32">
-        <v>1E-3</v>
-      </c>
-      <c r="F32">
-        <v>0.01</v>
-      </c>
-      <c r="G32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33">
-        <v>2.4117739999999999</v>
-      </c>
-      <c r="C33">
-        <v>2.4771740000000002</v>
-      </c>
-      <c r="D33">
-        <v>2.71556</v>
-      </c>
-      <c r="E33">
-        <v>2.6130900000000001</v>
-      </c>
-      <c r="F33">
-        <v>2.954205</v>
-      </c>
-      <c r="G33">
-        <v>3.0165920000000002</v>
       </c>
     </row>
   </sheetData>
@@ -26684,14 +26827,414 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F16A6CE-46E7-D546-BCF2-FDFB0D886630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3">
+        <v>3.6736149999999999</v>
+      </c>
+      <c r="C3">
+        <v>3.6474099999999998</v>
+      </c>
+      <c r="D3">
+        <v>3.869971</v>
+      </c>
+      <c r="E3">
+        <v>3.8685670000000001</v>
+      </c>
+      <c r="F3">
+        <v>3.8515999999999999</v>
+      </c>
+      <c r="G3">
+        <v>3.8312430000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2.3E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.86E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <v>37.079129000000002</v>
+      </c>
+      <c r="C11">
+        <v>36.320219999999999</v>
+      </c>
+      <c r="D11">
+        <v>36.743932999999998</v>
+      </c>
+      <c r="E11">
+        <v>36.192960999999997</v>
+      </c>
+      <c r="F11">
+        <v>35.397722000000002</v>
+      </c>
+      <c r="G11">
+        <v>35.168976999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14">
+        <v>1E-4</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="E15">
+        <v>2.7E-4</v>
+      </c>
+      <c r="F15">
+        <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>1E-4</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <f xml:space="preserve"> 1/0.979871</f>
+        <v>1.0205424999821404</v>
+      </c>
+      <c r="C20">
+        <v>1.019641</v>
+      </c>
+      <c r="D20">
+        <v>1.036257</v>
+      </c>
+      <c r="E20">
+        <v>1.059337</v>
+      </c>
+      <c r="F20">
+        <v>1.156326</v>
+      </c>
+      <c r="G20">
+        <v>1.359143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>596.92707900000005</v>
+      </c>
+      <c r="C24">
+        <v>600.92527700000005</v>
+      </c>
+      <c r="D24">
+        <v>601.79209100000003</v>
+      </c>
+      <c r="E24">
+        <v>608.63549899999998</v>
+      </c>
+      <c r="F24">
+        <v>599.60246299999994</v>
+      </c>
+      <c r="G24">
+        <v>602.11321499999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D27">
+        <v>1E-4</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.01</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E28">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F28">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="G28">
+        <v>1.042E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C32">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D32">
+        <v>1E-4</v>
+      </c>
+      <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>2.4117739999999999</v>
+      </c>
+      <c r="C33">
+        <v>2.4771740000000002</v>
+      </c>
+      <c r="D33">
+        <v>2.71556</v>
+      </c>
+      <c r="E33">
+        <v>2.6130900000000001</v>
+      </c>
+      <c r="F33">
+        <v>2.954205</v>
+      </c>
+      <c r="G33">
+        <v>3.0165920000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -26973,265 +27516,6 @@
       </c>
       <c r="F26">
         <v>7.835483</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4BC53-861A-4F44-A625-5CE21B6F2D0F}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3">
-        <v>1168.7577369999999</v>
-      </c>
-      <c r="C3">
-        <v>1169.4037599999999</v>
-      </c>
-      <c r="D3">
-        <v>1169.8979019999999</v>
-      </c>
-      <c r="E3">
-        <v>1169.5013759999999</v>
-      </c>
-      <c r="F3">
-        <v>1171.559651</v>
-      </c>
-      <c r="G3">
-        <v>1168.2831980000001</v>
-      </c>
-      <c r="H3">
-        <v>1173.325169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D6">
-        <v>1E-4</v>
-      </c>
-      <c r="E6">
-        <v>1E-3</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="G7">
-        <v>8.1089999999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D11">
-        <v>1E-4</v>
-      </c>
-      <c r="E11">
-        <v>1E-3</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.0032939999999999</v>
-      </c>
-      <c r="D12">
-        <v>1.0033559999999999</v>
-      </c>
-      <c r="E12">
-        <v>1.000604</v>
-      </c>
-      <c r="F12">
-        <v>1.0286679999999999</v>
-      </c>
-      <c r="G12">
-        <v>1.315936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C20">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D20">
-        <v>1E-4</v>
-      </c>
-      <c r="E20">
-        <v>1E-3</v>
-      </c>
-      <c r="F20">
-        <v>0.01</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C25">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D25">
-        <v>1E-4</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -27242,18 +27526,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5ED9B-4ACE-2440-B1F1-17CD48003D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F12"/>
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -27284,25 +27568,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3">
-        <v>2206.6678849999998</v>
+        <v>1168.7577369999999</v>
       </c>
       <c r="C3">
-        <v>2159.9150559999998</v>
+        <v>1169.4037599999999</v>
       </c>
       <c r="D3">
-        <v>2220.9988400000002</v>
+        <v>1169.8979019999999</v>
       </c>
       <c r="E3">
-        <v>2105.8497699999998</v>
+        <v>1169.5013759999999</v>
       </c>
       <c r="F3">
-        <v>2205.4593639999998</v>
+        <v>1171.559651</v>
       </c>
       <c r="G3">
-        <v>2172.3178710000002</v>
+        <v>1168.2831980000001</v>
       </c>
       <c r="H3">
-        <v>2165.6020990000002</v>
+        <v>1173.325169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -27344,16 +27628,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8.7000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.8320000000000001E-3</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="G7">
-        <v>1.8320000000000001E-3</v>
+        <v>8.1089999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -27386,27 +27670,27 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12">
-        <v>1.0000180000000001</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1.0004420000000001</v>
+        <v>1.0032939999999999</v>
       </c>
       <c r="D12">
-        <v>1.115305</v>
+        <v>1.0033559999999999</v>
       </c>
       <c r="E12">
-        <v>1.7523679999999999</v>
+        <v>1.000604</v>
       </c>
       <c r="F12">
-        <v>6.6116710000000003</v>
+        <v>1.0286679999999999</v>
       </c>
       <c r="G12">
-        <v>6.6116710000000003</v>
+        <v>1.315936</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -27501,14 +27785,273 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="C3">
+        <v>2159.9150559999998</v>
+      </c>
+      <c r="D3">
+        <v>2220.9988400000002</v>
+      </c>
+      <c r="E3">
+        <v>2105.8497699999998</v>
+      </c>
+      <c r="F3">
+        <v>2205.4593639999998</v>
+      </c>
+      <c r="G3">
+        <v>2172.3178710000002</v>
+      </c>
+      <c r="H3">
+        <v>2165.6020990000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E7">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>1.0000180000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.0004420000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.115305</v>
+      </c>
+      <c r="E12">
+        <v>1.7523679999999999</v>
+      </c>
+      <c r="F12">
+        <v>6.6116710000000003</v>
+      </c>
+      <c r="G12">
+        <v>6.6116710000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>1E-4</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -22,22 +22,12 @@
     <sheet name="fftss" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -368,6 +358,10 @@
     <t>c</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +508,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1213,6 +1206,2836 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/o diff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6969999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6490000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/ diff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6559999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751995920"/>
+        <c:axId val="752008816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751995920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrorBound (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36924164581917285"/>
+              <c:y val="0.90186876187508425"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752008816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752008816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.34575568678915136"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751995920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313818697174379"/>
+          <c:y val="3.8126356750421565E-2"/>
+          <c:w val="0.45843460192475938"/>
+          <c:h val="0.14141576071538256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.6914000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10253900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11804199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14538599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18054200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3080-487C-82DB-A04319DD02D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4414000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14636199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.209839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23327600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3080-487C-82DB-A04319DD02D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6601999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5391E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12109399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17285200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3080-487C-82DB-A04319DD02D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$J$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.8120000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8120000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3080-487C-82DB-A04319DD02D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1378613855"/>
+        <c:axId val="1378614271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1378613855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>absErrorBound</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t> (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="1" baseline="0"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1378614271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1378614271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Hit Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.30613808690580346"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1378613855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16757874015748031"/>
+          <c:y val="6.0185185185185182E-2"/>
+          <c:w val="0.2354938757655293"/>
+          <c:h val="8.9331802274715655E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bytewise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86004725863909515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80639550922982806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73296469995562008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69355051516714439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50934977390219627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bitwise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$R$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79123436206834508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69099566995717931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47939931151119691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41393290232814767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25600028786988283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751995920"/>
+        <c:axId val="752008816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751995920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrorBound (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36924164581917285"/>
+              <c:y val="0.90186876187508425"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752008816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752008816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Relative Execution TIme</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.16057050160396616"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751995920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313818697174379"/>
+          <c:y val="3.8126356750421565E-2"/>
+          <c:w val="0.74176790384223024"/>
+          <c:h val="0.14141576071538256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>himeno!$A$7:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sz (byte)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sz (bit)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sz-mod (byte)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sz-mod (bit)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ueno-performance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ueno-area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.402900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B4A-C34F-8EAB-C6B3CC1E08C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="420509008"/>
+        <c:axId val="244229760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420509008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244229760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244229760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420509008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>compression ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz (byte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0248469999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6884130000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.944709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz (bit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1491579999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.466395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.402900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.648683999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.012912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz-mod (byte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0870359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6002749999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5443549999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8102360000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>himeno!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sz-mod (bit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>himeno!$F$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7052529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2724469999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7637509999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.947824000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AD8-4CA6-B91E-2EA633FF082D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="949448928"/>
+        <c:axId val="949451424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="949448928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound (1eN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4053597987751531"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949451424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949451424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949448928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1665,7 +4488,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2112,7 +4935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2562,7 +5385,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3064,7 +5887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3512,7 +6335,503 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9380000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4549999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.637E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8900000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.106E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.826E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1037903360"/>
+        <c:axId val="1037897536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1037903360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45920713035870514"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037897536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037897536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037903360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3972,7 +7291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4418,7 +7737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4879,7 +8198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5331,7 +8650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5792,505 +9111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> time</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uncompressed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$15:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9380000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9799999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4549999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.637E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$16:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.8900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0679999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1800000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.106E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.826E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1037903360"/>
-        <c:axId val="1037897536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1037903360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45920713035870514"/>
-              <c:y val="0.8005548264800233"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037897536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1037897536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037903360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6736,7 +9557,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7181,7 +10002,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7628,7 +10449,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7729,7 +10549,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8136,7 +10955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8608,7 +11426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9219,7 +12036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9326,7 +12142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9776,7 +12591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10281,7 +13095,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10361,6 +13174,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -10372,36 +13186,511 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ueno-perf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85253400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85253400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85253400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85253400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85253400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ueno-area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93090899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93090899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93090899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93090899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93090899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.419719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0221079999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5354619999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1054200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bytewise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0841719999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.140193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4421900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7601119999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2320009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bitwise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pingpong(revise)'!$B$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pingpong(revise)'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3925460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7127330000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4286989999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3625449999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8987889999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751995920"/>
+        <c:axId val="752008816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751995920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -10409,117 +13698,59 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>absErrorBound (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>himeno!$A$7:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>sz (byte)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sz (bit)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sz-mod (byte)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sz-mod (bit)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ueno-performance</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ueno-area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$B$7:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.7763</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.402900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0692999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98680000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B4A-C34F-8EAB-C6B3CC1E08C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="420509008"/>
-        <c:axId val="244229760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="420509008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36924164581917285"/>
+              <c:y val="0.90186876187508425"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10542,7 +13773,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10557,7 +13788,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244229760"/>
+        <c:crossAx val="752008816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10565,7 +13796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244229760"/>
+        <c:axId val="752008816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10585,6 +13816,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.1837186497521143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10601,7 +13896,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10616,7 +13911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420509008"/>
+        <c:crossAx val="751995920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10628,6 +13923,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313818697174379"/>
+          <c:y val="3.8126356750421565E-2"/>
+          <c:w val="0.74176790384223024"/>
+          <c:h val="0.14141576071538256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10678,111 +14014,44 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>compression ratio</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>himeno!$E$3</c:f>
+              <c:f>'pingpong(revise)'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sz (byte)</c:v>
+                  <c:v>w/o diff.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:f>'pingpong(revise)'!$J$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10806,32 +14075,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>himeno!$F$3:$J$3</c:f>
+              <c:f>'pingpong(revise)'!$J$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0248469999999998</c:v>
+                  <c:v>1.1074759999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6884130000000002</c:v>
+                  <c:v>1.1816059999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7763</c:v>
+                  <c:v>1.6214360000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.944709</c:v>
+                  <c:v>2.1730520000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.96469</c:v>
+                  <c:v>3.2254350000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9AD8-4CA6-B91E-2EA633FF082D}"/>
+              <c16:uniqueId val="{00000000-73DD-445A-8C38-91AE468017AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10840,43 +14108,32 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>himeno!$E$4</c:f>
+              <c:f>'pingpong(revise)'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sz (bit)</c:v>
+                  <c:v>w/ diff.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
+              <c:f>'pingpong(revise)'!$J$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10900,218 +14157,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>himeno!$F$4:$J$4</c:f>
+              <c:f>'pingpong(revise)'!$J$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.1491579999999999</c:v>
+                  <c:v>1.3925460000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.466395</c:v>
+                  <c:v>1.7127330000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.402900000000001</c:v>
+                  <c:v>2.4286989999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.648683999999999</c:v>
+                  <c:v>3.3625449999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.012912</c:v>
+                  <c:v>4.8987889999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz-mod (byte)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0870359999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6002749999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5443549999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8102360000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9AD8-4CA6-B91E-2EA633FF082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>himeno!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sz-mod (bit)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>himeno!$F$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>himeno!$F$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.7052529999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2724469999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7637509999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.947824000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9AD8-4CA6-B91E-2EA633FF082D}"/>
+              <c16:uniqueId val="{00000001-73DD-445A-8C38-91AE468017AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11123,13 +14193,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="949448928"/>
-        <c:axId val="949451424"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751995920"/>
+        <c:axId val="752008816"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="949448928"/>
+        <c:axId val="751995920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11142,7 +14212,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11156,8 +14226,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound (1eN)</a:t>
+                  <a:t>absErrorBound</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1" baseline="0"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11165,8 +14248,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4053597987751531"/>
-              <c:y val="0.8005548264800233"/>
+              <c:x val="0.36924164581917285"/>
+              <c:y val="0.90186876187508425"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11182,7 +14265,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11220,7 +14303,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11235,7 +14318,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="949451424"/>
+        <c:crossAx val="752008816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11243,7 +14326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="949451424"/>
+        <c:axId val="752008816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11263,6 +14346,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888849491095676E-2"/>
+              <c:y val="0.23001480923762602"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11279,7 +14425,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11294,7 +14440,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="949448928"/>
+        <c:crossAx val="751995920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11307,8 +14453,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313818697174379"/>
+          <c:y val="3.8126356750421565E-2"/>
+          <c:w val="0.46954571303587039"/>
+          <c:h val="0.14141576071538256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -11321,7 +14477,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11974,6 +15130,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13261,7 +16617,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13465,22 +16821,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13585,8 +16942,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13718,19 +17075,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14770,7 +18128,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19799,7 +23157,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20302,7 +23660,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20805,7 +24163,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21308,7 +24666,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21811,7 +25169,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22314,7 +25672,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22817,8 +26175,2523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23588,6 +29461,161 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>608202</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>58155</xdr:rowOff>
@@ -23660,7 +29688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23845,7 +29873,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23922,7 +29950,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23999,7 +30027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24076,7 +30104,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25674,11 +31702,1019 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10:N11"/>
     </sheetView>
   </sheetViews>
@@ -26089,10 +33125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26184,19 +33220,19 @@
         <v>76</v>
       </c>
       <c r="J3">
-        <v>1.2820530000000001</v>
+        <v>1.1074759999999999</v>
       </c>
       <c r="K3">
-        <v>1.5650759999999999</v>
+        <v>1.1816059999999999</v>
       </c>
       <c r="L3">
-        <v>2.3836909999999998</v>
+        <v>1.6214360000000001</v>
       </c>
       <c r="M3">
-        <v>3.2225799999999998</v>
+        <v>2.1730520000000002</v>
       </c>
       <c r="N3">
-        <v>4.7376560000000003</v>
+        <v>3.2254350000000001</v>
       </c>
       <c r="Q3" t="s">
         <v>72</v>
@@ -26240,19 +33276,19 @@
         <v>75</v>
       </c>
       <c r="J4">
-        <v>1.3897109999999999</v>
+        <v>1.3925460000000001</v>
       </c>
       <c r="K4">
-        <v>1.7084459999999999</v>
+        <v>1.7127330000000001</v>
       </c>
       <c r="L4">
-        <v>2.4200889999999999</v>
+        <v>2.4286989999999999</v>
       </c>
       <c r="M4">
         <v>3.3625449999999999</v>
       </c>
       <c r="N4">
-        <v>4.8682220000000003</v>
+        <v>4.8987889999999998</v>
       </c>
       <c r="Q4" t="s">
         <v>73</v>
@@ -26395,19 +33431,19 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>1.3897109999999999</v>
+        <v>1.3925460000000001</v>
       </c>
       <c r="C8">
-        <v>1.7084459999999999</v>
+        <v>1.7127330000000001</v>
       </c>
       <c r="D8">
-        <v>2.4200889999999999</v>
+        <v>2.4286989999999999</v>
       </c>
       <c r="E8">
         <v>3.3625449999999999</v>
       </c>
       <c r="F8">
-        <v>4.8682220000000003</v>
+        <v>4.8987889999999998</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -26449,8 +33485,11 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>80</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>8.6914000000000005E-2</v>
@@ -26459,18 +33498,21 @@
         <v>0.10253900000000001</v>
       </c>
       <c r="L11">
-        <v>0.12585399999999999</v>
+        <v>0.11804199999999999</v>
       </c>
       <c r="M11">
-        <v>0.16101099999999999</v>
+        <v>0.14538599999999999</v>
       </c>
       <c r="N11">
-        <v>0.20300299999999999</v>
+        <v>0.18054200000000001</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>81</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -26482,15 +33524,18 @@
         <v>0.14636199999999999</v>
       </c>
       <c r="M12">
-        <v>0.225464</v>
+        <v>0.209839</v>
       </c>
       <c r="N12">
-        <v>0.272339</v>
+        <v>0.23327600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>82</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
       <c r="J13">
         <v>1.6601999999999999E-2</v>
@@ -26505,12 +33550,59 @@
         <v>0.17285200000000001</v>
       </c>
       <c r="N13">
-        <v>0.23632800000000001</v>
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>7.8120000000000004E-3</v>
+      </c>
+      <c r="K14">
+        <v>7.8120000000000004E-3</v>
+      </c>
+      <c r="L14">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M14">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.101562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="J15">
+        <f>SUM(J11:J14)</f>
+        <v>0.111328</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K11:K14)</f>
+        <v>0.16015600000000002</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L11:L14)</f>
+        <v>0.40112299999999995</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M11:M14)</f>
+        <v>0.55932700000000002</v>
+      </c>
+      <c r="N15">
+        <f>SUM(N11:N14)</f>
+        <v>0.71850500000000006</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28084,19 +35176,19 @@
         <v>6.21041825</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:F3" si="0">AVERAGE(C4:C7)</f>
+        <f>AVERAGE(C4:C7)</f>
         <v>6.21041825</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D7)</f>
         <v>6.21041825</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E7)</f>
         <v>6.21041825</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F7)</f>
         <v>6.21041825</v>
       </c>
     </row>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F46EC-95DC-534F-A114-A740EF445638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3024" windowWidth="26736" windowHeight="18396" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
     <sheet name="pingpong(revise)" sheetId="8" r:id="rId2"/>
     <sheet name="himeno" sheetId="1" r:id="rId3"/>
-    <sheet name="k-means" sheetId="3" r:id="rId4"/>
-    <sheet name="k-means(test)" sheetId="5" r:id="rId5"/>
-    <sheet name="k-means(obs_info)" sheetId="6" r:id="rId6"/>
-    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId7"/>
-    <sheet name="fftss" sheetId="4" r:id="rId8"/>
+    <sheet name="himeno(revise)" sheetId="9" r:id="rId4"/>
+    <sheet name="k-means" sheetId="3" r:id="rId5"/>
+    <sheet name="k-means(test)" sheetId="5" r:id="rId6"/>
+    <sheet name="k-means(obs_info)" sheetId="6" r:id="rId7"/>
+    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId8"/>
+    <sheet name="fftss" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -366,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2123,7 +2132,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29213,7 +29221,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29251,7 +29259,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29289,7 +29297,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29327,7 +29335,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29363,7 +29371,7 @@
         <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9459C05E-8C10-434A-8CBC-F1DAD8CE2958}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29399,7 +29407,7 @@
         <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D69FD0-2FC7-E34A-9CA3-D584220F7F2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29435,7 +29443,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0095099-2761-4445-9D83-0CF9EEF7C6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29473,7 +29481,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29503,7 +29517,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29533,7 +29553,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29563,7 +29589,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29593,7 +29625,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29631,7 +29669,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29667,7 +29705,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29708,7 +29746,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29744,7 +29782,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29780,7 +29818,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29816,7 +29854,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29852,7 +29890,7 @@
         <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29893,7 +29931,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1AD0F1-239B-EA46-8DFD-23346090E4FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29929,7 +29967,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EA3413-F89E-D944-8FAE-3723A0C65F08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29970,7 +30008,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CC7905-79DA-4E44-8F82-21D509226C2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30006,7 +30044,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1F54EE-1FED-4744-B66C-65615DB02046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30047,7 +30085,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4036365A-CFE7-EF46-B261-1EB5DBF91A3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30083,7 +30121,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B461563-D1B2-F241-9890-A9E8961E9206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30124,7 +30162,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30160,7 +30198,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C06B3C8-0335-EB45-B714-0A18852A1C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32711,18 +32749,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -33124,14 +33162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -33607,16 +33645,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -33919,14 +33957,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F313FB-83AD-0442-9AB5-FB15F7618C96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -34318,15 +34369,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -34608,265 +34659,6 @@
       </c>
       <c r="F26">
         <v>7.835483</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3">
-        <v>1168.7577369999999</v>
-      </c>
-      <c r="C3">
-        <v>1169.4037599999999</v>
-      </c>
-      <c r="D3">
-        <v>1169.8979019999999</v>
-      </c>
-      <c r="E3">
-        <v>1169.5013759999999</v>
-      </c>
-      <c r="F3">
-        <v>1171.559651</v>
-      </c>
-      <c r="G3">
-        <v>1168.2831980000001</v>
-      </c>
-      <c r="H3">
-        <v>1173.325169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D6">
-        <v>1E-4</v>
-      </c>
-      <c r="E6">
-        <v>1E-3</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="G7">
-        <v>8.1089999999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D11">
-        <v>1E-4</v>
-      </c>
-      <c r="E11">
-        <v>1E-3</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.0032939999999999</v>
-      </c>
-      <c r="D12">
-        <v>1.0033559999999999</v>
-      </c>
-      <c r="E12">
-        <v>1.000604</v>
-      </c>
-      <c r="F12">
-        <v>1.0286679999999999</v>
-      </c>
-      <c r="G12">
-        <v>1.315936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C20">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D20">
-        <v>1E-4</v>
-      </c>
-      <c r="E20">
-        <v>1E-3</v>
-      </c>
-      <c r="F20">
-        <v>0.01</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C25">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D25">
-        <v>1E-4</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -34877,18 +34669,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F12"/>
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -34919,25 +34711,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3">
-        <v>2206.6678849999998</v>
+        <v>1168.7577369999999</v>
       </c>
       <c r="C3">
-        <v>2159.9150559999998</v>
+        <v>1169.4037599999999</v>
       </c>
       <c r="D3">
-        <v>2220.9988400000002</v>
+        <v>1169.8979019999999</v>
       </c>
       <c r="E3">
-        <v>2105.8497699999998</v>
+        <v>1169.5013759999999</v>
       </c>
       <c r="F3">
-        <v>2205.4593639999998</v>
+        <v>1171.559651</v>
       </c>
       <c r="G3">
-        <v>2172.3178710000002</v>
+        <v>1168.2831980000001</v>
       </c>
       <c r="H3">
-        <v>2165.6020990000002</v>
+        <v>1173.325169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -34979,16 +34771,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8.7000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.8320000000000001E-3</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="G7">
-        <v>1.8320000000000001E-3</v>
+        <v>8.1089999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -35021,27 +34813,27 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12">
-        <v>1.0000180000000001</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1.0004420000000001</v>
+        <v>1.0032939999999999</v>
       </c>
       <c r="D12">
-        <v>1.115305</v>
+        <v>1.0033559999999999</v>
       </c>
       <c r="E12">
-        <v>1.7523679999999999</v>
+        <v>1.000604</v>
       </c>
       <c r="F12">
-        <v>6.6116710000000003</v>
+        <v>1.0286679999999999</v>
       </c>
       <c r="G12">
-        <v>6.6116710000000003</v>
+        <v>1.315936</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -35136,14 +34928,273 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="C3">
+        <v>2159.9150559999998</v>
+      </c>
+      <c r="D3">
+        <v>2220.9988400000002</v>
+      </c>
+      <c r="E3">
+        <v>2105.8497699999998</v>
+      </c>
+      <c r="F3">
+        <v>2205.4593639999998</v>
+      </c>
+      <c r="G3">
+        <v>2172.3178710000002</v>
+      </c>
+      <c r="H3">
+        <v>2165.6020990000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E7">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.8320000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>1.0000180000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.0004420000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.115305</v>
+      </c>
+      <c r="E12">
+        <v>1.7523679999999999</v>
+      </c>
+      <c r="F12">
+        <v>6.6116710000000003</v>
+      </c>
+      <c r="G12">
+        <v>6.6116710000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>1E-4</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F46EC-95DC-534F-A114-A740EF445638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32645105-30DE-3F4B-9F06-4C000FD73573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -33166,7 +33166,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:V5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -33648,7 +33648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
@@ -33958,12 +33958,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F313FB-83AD-0442-9AB5-FB15F7618C96}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>3.3834870000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32645105-30DE-3F4B-9F06-4C000FD73573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DDCEB9-D2E9-F245-9A24-174D627D7E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33961,7 +33961,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33992,6 +33992,9 @@
       </c>
       <c r="B3">
         <v>3.3834870000000001</v>
+      </c>
+      <c r="C3">
+        <v>4.0342929999999999</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DDCEB9-D2E9-F245-9A24-174D627D7E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F620E-944F-4B47-8D4F-FABE50A964E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33961,7 +33961,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33995,6 +33995,9 @@
       </c>
       <c r="C3">
         <v>4.0342929999999999</v>
+      </c>
+      <c r="D3">
+        <v>6.5787000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F620E-944F-4B47-8D4F-FABE50A964E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33930479-4D91-E743-A998-20E415B0B9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33961,7 +33961,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33998,6 +33998,9 @@
       </c>
       <c r="D3">
         <v>6.5787000000000004</v>
+      </c>
+      <c r="E3">
+        <v>9.0229990000000004</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33930479-4D91-E743-A998-20E415B0B9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78128612-F208-E942-933B-66CADB8C5D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3020" windowWidth="26740" windowHeight="18400" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3400" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,56 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId8"/>
     <sheet name="fftss" sheetId="4" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'pingpong(revise)'!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'pingpong(revise)'!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'pingpong(revise)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'pingpong(revise)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'pingpong(revise)'!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'himeno(revise)'!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'himeno(revise)'!$B$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'himeno(revise)'!$B$3:$B$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'himeno(revise)'!$C$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'himeno(revise)'!$C$3:$C$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'himeno(revise)'!$D$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'himeno(revise)'!$D$3:$D$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'pingpong(revise)'!$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'himeno(revise)'!$E$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'himeno(revise)'!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'himeno(revise)'!$F$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'himeno(revise)'!$F$3:$F$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'pingpong(revise)'!$A$6</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'himeno(revise)'!$A$3</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'himeno(revise)'!$A$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'himeno(revise)'!$A$5</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'himeno(revise)'!$A$6</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'himeno(revise)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'pingpong(revise)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'himeno(revise)'!$A$8</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'himeno(revise)'!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'himeno(revise)'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'himeno(revise)'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'himeno(revise)'!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'himeno(revise)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'himeno(revise)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'himeno(revise)'!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'pingpong(revise)'!$A$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'pingpong(revise)'!$B$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'pingpong(revise)'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'pingpong(revise)'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'pingpong(revise)'!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">'himeno(revise)'!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">'himeno(revise)'!$B$2</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">'himeno(revise)'!$B$3:$B$8</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">'himeno(revise)'!$C$2</definedName>
+    <definedName name="_xlchart.v2.28" hidden="1">'himeno(revise)'!$C$3:$C$8</definedName>
+    <definedName name="_xlchart.v2.29" hidden="1">'himeno(revise)'!$D$2</definedName>
+    <definedName name="_xlchart.v2.30" hidden="1">'himeno(revise)'!$D$3:$D$8</definedName>
+    <definedName name="_xlchart.v2.31" hidden="1">'himeno(revise)'!$E$2</definedName>
+    <definedName name="_xlchart.v2.32" hidden="1">'himeno(revise)'!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">'himeno(revise)'!$F$2</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">'himeno(revise)'!$F$3:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -4056,6 +4106,852 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ueno-perf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ueno-area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1491579999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.402900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.466395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.648683999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.012912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bytewise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0870359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6002749999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5443549999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8102360000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'himeno(revise)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp (bitwise)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'himeno(revise)'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3834870000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0342929999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5787000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0229990000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.010788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-73DD-445A-8C38-91AE468017AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751995920"/>
+        <c:axId val="752008816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751995920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrorBound (1e</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36924164581917285"/>
+              <c:y val="0.90186876187508425"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752008816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752008816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.1837186497521143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751995920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313818697174379"/>
+          <c:y val="3.8126275882181392E-2"/>
+          <c:w val="0.6084346019247594"/>
+          <c:h val="0.2016010498687664"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4496,7 +5392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4943,7 +5839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5393,7 +6289,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5895,7 +6791,503 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9380000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4549999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.637E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ping-pong'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressed (sz-mod)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ping-pong'!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8900000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1800000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.106E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.826E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1037903360"/>
+        <c:axId val="1037897536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1037903360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>absErrBound</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45920713035870514"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037897536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037897536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037903360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6343,503 +7735,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> time</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uncompressed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$15:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9380000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9799999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4549999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.637E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ping-pong'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compressed (sz-mod)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ping-pong'!$B$16:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.8900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0679999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1800000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.106E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.826E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DC0-4EA9-BB21-AB8A5794666F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1037903360"/>
-        <c:axId val="1037897536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1037903360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>absErrBound</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45920713035870514"/>
-              <c:y val="0.8005548264800233"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037897536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1037897536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037903360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7299,7 +8195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7745,7 +8641,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8206,7 +9102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8658,7 +9554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9119,7 +10015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9565,7 +10461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10010,7 +10906,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -15338,6 +16234,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25178,6 +26114,509 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29730,6 +31169,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881C4E1A-3D62-7B41-A932-463F1597757C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -29911,7 +31391,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -29988,7 +31468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30065,7 +31545,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30142,7 +31622,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30481,6 +31961,258 @@
 </file>
 
 <file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
     <a:dk1>
@@ -33166,7 +34898,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -33649,7 +35381,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -33958,18 +35690,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F313FB-83AD-0442-9AB5-FB15F7618C96}">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
       <c r="B2">
         <v>-6</v>
       </c>
@@ -33988,24 +35717,133 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.0692999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>6.1491579999999999</v>
+      </c>
+      <c r="C6">
+        <v>10.402900000000001</v>
+      </c>
+      <c r="D6">
+        <v>11.466395</v>
+      </c>
+      <c r="E6">
+        <v>14.648683999999999</v>
+      </c>
+      <c r="F6">
+        <v>15.012912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>2.0870359999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.6002749999999999</v>
+      </c>
+      <c r="D7">
+        <v>2.8954</v>
+      </c>
+      <c r="E7">
+        <v>3.5443549999999999</v>
+      </c>
+      <c r="F7">
+        <v>3.8102360000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>3.3834870000000001</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>4.0342929999999999</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>6.5787000000000004</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>9.0229990000000004</v>
+      </c>
+      <c r="F8">
+        <v>14.010788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9">
+        <v>7.5494089999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34013,7 +35851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
@@ -34413,7 +36251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78128612-F208-E942-933B-66CADB8C5D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B38E75-A6B4-084F-B445-E7B0AC4C46A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3400" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="4460" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -20,59 +20,10 @@
     <sheet name="k-means" sheetId="3" r:id="rId5"/>
     <sheet name="k-means(test)" sheetId="5" r:id="rId6"/>
     <sheet name="k-means(obs_info)" sheetId="6" r:id="rId7"/>
-    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId8"/>
-    <sheet name="fftss" sheetId="4" r:id="rId9"/>
+    <sheet name="obs_info(revise)" sheetId="10" r:id="rId8"/>
+    <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId9"/>
+    <sheet name="fftss" sheetId="4" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'pingpong(revise)'!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'pingpong(revise)'!$A$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'pingpong(revise)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'pingpong(revise)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'pingpong(revise)'!$B$8:$F$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'himeno(revise)'!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'himeno(revise)'!$B$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'himeno(revise)'!$B$3:$B$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'himeno(revise)'!$C$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'himeno(revise)'!$C$3:$C$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'himeno(revise)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'himeno(revise)'!$D$3:$D$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'pingpong(revise)'!$A$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'himeno(revise)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'himeno(revise)'!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'himeno(revise)'!$F$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'himeno(revise)'!$F$3:$F$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'pingpong(revise)'!$A$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'himeno(revise)'!$A$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'himeno(revise)'!$A$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'himeno(revise)'!$A$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'himeno(revise)'!$A$6</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'himeno(revise)'!$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'pingpong(revise)'!$A$7</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'himeno(revise)'!$A$8</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'himeno(revise)'!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'himeno(revise)'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'himeno(revise)'!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'himeno(revise)'!$B$5:$F$5</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'himeno(revise)'!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'himeno(revise)'!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'himeno(revise)'!$B$8:$F$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'pingpong(revise)'!$A$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'pingpong(revise)'!$B$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'pingpong(revise)'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'pingpong(revise)'!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'pingpong(revise)'!$B$5:$F$5</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">'himeno(revise)'!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">'himeno(revise)'!$B$2</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">'himeno(revise)'!$B$3:$B$8</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">'himeno(revise)'!$C$2</definedName>
-    <definedName name="_xlchart.v2.28" hidden="1">'himeno(revise)'!$C$3:$C$8</definedName>
-    <definedName name="_xlchart.v2.29" hidden="1">'himeno(revise)'!$D$2</definedName>
-    <definedName name="_xlchart.v2.30" hidden="1">'himeno(revise)'!$D$3:$D$8</definedName>
-    <definedName name="_xlchart.v2.31" hidden="1">'himeno(revise)'!$E$2</definedName>
-    <definedName name="_xlchart.v2.32" hidden="1">'himeno(revise)'!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">'himeno(revise)'!$F$2</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">'himeno(revise)'!$F$3:$F$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -86,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -34893,6 +34844,304 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3">
+        <f>AVERAGE(B4:B7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(C4:C7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(D4:D7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(E4:E7)</f>
+        <v>6.21041825</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(F4:F7)</f>
+        <v>6.21041825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="C4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="D4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="E4">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="F4">
+        <v>7.9996809999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="C5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="D5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="E5">
+        <v>7.9996809999999998</v>
+      </c>
+      <c r="F5">
+        <v>7.9996809999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.0025649999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.0025649999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="D7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="E7">
+        <v>7.8397459999999999</v>
+      </c>
+      <c r="F7">
+        <v>7.8397459999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <v>4.2609000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.2356</v>
+      </c>
+      <c r="D11">
+        <v>0.26866699999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.31279600000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.267152</v>
+      </c>
+      <c r="G11">
+        <v>0.26097100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <v>4.2609000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.27939599999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.21291599999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.18334600000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.553126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15">
+        <v>2.2270000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.8202000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16">
+        <v>1.9782000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.2936000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="D17">
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.4346E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18">
+        <v>2.6015E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.0252999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19">
+        <f>SUM(D15:D18)</f>
+        <v>8.6527000000000007E-2</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E15:E18)</f>
+        <v>0.105737</v>
+      </c>
+      <c r="F19">
+        <f>D19/E19</f>
+        <v>0.81832281982655086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>4.2609000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>0.21291599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>3.8682000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V15"/>
@@ -35692,8 +35941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F313FB-83AD-0442-9AB5-FB15F7618C96}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36551,7 +36800,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
@@ -36806,6 +37055,91 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9925E5E1-8053-134A-937E-D64A5823C4EF}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="J2">
+        <v>-6</v>
+      </c>
+      <c r="K2">
+        <v>-5</v>
+      </c>
+      <c r="L2">
+        <v>-4</v>
+      </c>
+      <c r="M2">
+        <v>-3</v>
+      </c>
+      <c r="N2">
+        <v>-2</v>
+      </c>
+      <c r="R2">
+        <v>-6</v>
+      </c>
+      <c r="S2">
+        <v>-5</v>
+      </c>
+      <c r="T2">
+        <v>-4</v>
+      </c>
+      <c r="U2">
+        <v>-3</v>
+      </c>
+      <c r="V2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="F3">
+        <v>3.4551639999999999</v>
+      </c>
+      <c r="N3">
+        <v>599.73800900000003</v>
+      </c>
+      <c r="V3">
+        <v>1.7229999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -37062,302 +37396,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D2">
-        <v>1E-4</v>
-      </c>
-      <c r="E2">
-        <v>1E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3">
-        <f>AVERAGE(B4:B7)</f>
-        <v>6.21041825</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(C4:C7)</f>
-        <v>6.21041825</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(D4:D7)</f>
-        <v>6.21041825</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(E4:E7)</f>
-        <v>6.21041825</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(F4:F7)</f>
-        <v>6.21041825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="C4">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="D4">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="E4">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="F4">
-        <v>7.9996809999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="C5">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="D5">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="E5">
-        <v>7.9996809999999998</v>
-      </c>
-      <c r="F5">
-        <v>7.9996809999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6">
-        <v>1.0025649999999999</v>
-      </c>
-      <c r="C6">
-        <v>1.0025649999999999</v>
-      </c>
-      <c r="D6">
-        <v>1.0025649999999999</v>
-      </c>
-      <c r="E6">
-        <v>1.0025649999999999</v>
-      </c>
-      <c r="F6">
-        <v>1.0025649999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7">
-        <v>7.8397459999999999</v>
-      </c>
-      <c r="C7">
-        <v>7.8397459999999999</v>
-      </c>
-      <c r="D7">
-        <v>7.8397459999999999</v>
-      </c>
-      <c r="E7">
-        <v>7.8397459999999999</v>
-      </c>
-      <c r="F7">
-        <v>7.8397459999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11">
-        <v>4.2609000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>0.2356</v>
-      </c>
-      <c r="D11">
-        <v>0.26866699999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.31279600000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.267152</v>
-      </c>
-      <c r="G11">
-        <v>0.26097100000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13">
-        <v>4.2609000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.27939599999999998</v>
-      </c>
-      <c r="D13">
-        <v>0.21291599999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.18334600000000001</v>
-      </c>
-      <c r="F13">
-        <v>1.553126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15">
-        <v>2.2270000000000002E-2</v>
-      </c>
-      <c r="E15">
-        <v>2.8202000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16">
-        <v>1.9782000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>2.2936000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="D17">
-        <v>1.8460000000000001E-2</v>
-      </c>
-      <c r="E17">
-        <v>2.4346E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="D18">
-        <v>2.6015E-2</v>
-      </c>
-      <c r="E18">
-        <v>3.0252999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="D19">
-        <f>SUM(D15:D18)</f>
-        <v>8.6527000000000007E-2</v>
-      </c>
-      <c r="E19">
-        <f>SUM(E15:E18)</f>
-        <v>0.105737</v>
-      </c>
-      <c r="F19">
-        <f>D19/E19</f>
-        <v>0.81832281982655086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>4.2609000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22">
-        <v>0.21291599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>3.8682000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B38E75-A6B4-084F-B445-E7B0AC4C46A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D434127-16CB-634F-B264-B2F278EB0420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="4460" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -35942,7 +35942,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36100,7 +36100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
@@ -36500,7 +36500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -37056,80 +37056,132 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9925E5E1-8053-134A-937E-D64A5823C4EF}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2">
-        <v>-6</v>
-      </c>
-      <c r="C2">
-        <v>-5</v>
-      </c>
-      <c r="D2">
-        <v>-4</v>
-      </c>
-      <c r="E2">
-        <v>-3</v>
-      </c>
-      <c r="F2">
-        <v>-2</v>
-      </c>
-      <c r="J2">
-        <v>-6</v>
-      </c>
-      <c r="K2">
-        <v>-5</v>
-      </c>
-      <c r="L2">
-        <v>-4</v>
-      </c>
-      <c r="M2">
-        <v>-3</v>
-      </c>
-      <c r="N2">
-        <v>-2</v>
-      </c>
-      <c r="R2">
-        <v>-6</v>
-      </c>
-      <c r="S2">
-        <v>-5</v>
-      </c>
-      <c r="T2">
-        <v>-4</v>
-      </c>
-      <c r="U2">
-        <v>-3</v>
-      </c>
-      <c r="V2">
-        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:22">
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
       <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="J3">
+        <v>-6</v>
+      </c>
+      <c r="K3">
+        <v>-5</v>
+      </c>
+      <c r="L3">
+        <v>-4</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>-2</v>
+      </c>
+      <c r="R3">
+        <v>-6</v>
+      </c>
+      <c r="S3">
+        <v>-5</v>
+      </c>
+      <c r="T3">
+        <v>-4</v>
+      </c>
+      <c r="U3">
+        <v>-3</v>
+      </c>
+      <c r="V3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>0.90691900000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>0.12953600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>1.655878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
         <v>3.4551639999999999</v>
       </c>
-      <c r="N3">
+      <c r="N9">
         <v>599.73800900000003</v>
       </c>
-      <c r="V3">
+      <c r="V9">
         <v>1.7229999999999999E-3</v>
       </c>
     </row>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D434127-16CB-634F-B264-B2F278EB0420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34117E86-0FF0-844A-961A-75C138C62936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37058,8 +37058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9925E5E1-8053-134A-937E-D64A5823C4EF}">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37146,6 +37146,9 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
+      <c r="E5">
+        <v>0.90624300000000002</v>
+      </c>
       <c r="F5">
         <v>0.90691900000000003</v>
       </c>
@@ -37154,6 +37157,9 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
+      <c r="E6">
+        <v>0.12953600000000001</v>
+      </c>
       <c r="F6">
         <v>0.12953600000000001</v>
       </c>
@@ -37162,6 +37168,9 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
+      <c r="E7">
+        <v>1.7254389999999999</v>
+      </c>
       <c r="F7">
         <v>1.655878</v>
       </c>
@@ -37175,11 +37184,20 @@
       <c r="A9" t="s">
         <v>74</v>
       </c>
+      <c r="E9">
+        <v>2.963832</v>
+      </c>
       <c r="F9">
         <v>3.4551639999999999</v>
       </c>
+      <c r="M9">
+        <v>602.21898599999997</v>
+      </c>
       <c r="N9">
         <v>599.73800900000003</v>
+      </c>
+      <c r="U9">
+        <v>2.13E-4</v>
       </c>
       <c r="V9">
         <v>1.7229999999999999E-3</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34117E86-0FF0-844A-961A-75C138C62936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37185D36-0EAF-8C48-8D6F-34B416CB0D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37059,7 +37059,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37146,6 +37146,9 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
+      <c r="D5">
+        <v>0.90476299999999998</v>
+      </c>
       <c r="E5">
         <v>0.90624300000000002</v>
       </c>
@@ -37157,6 +37160,9 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
+      <c r="D6">
+        <v>0.12953600000000001</v>
+      </c>
       <c r="E6">
         <v>0.12953600000000001</v>
       </c>
@@ -37168,6 +37174,9 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
+      <c r="D7">
+        <v>1.6170329999999999</v>
+      </c>
       <c r="E7">
         <v>1.7254389999999999</v>
       </c>
@@ -37184,17 +37193,26 @@
       <c r="A9" t="s">
         <v>74</v>
       </c>
+      <c r="D9">
+        <v>2.5891709999999999</v>
+      </c>
       <c r="E9">
         <v>2.963832</v>
       </c>
       <c r="F9">
         <v>3.4551639999999999</v>
       </c>
+      <c r="L9">
+        <v>605.04395499999998</v>
+      </c>
       <c r="M9">
         <v>602.21898599999997</v>
       </c>
       <c r="N9">
         <v>599.73800900000003</v>
+      </c>
+      <c r="T9">
+        <v>2.9E-5</v>
       </c>
       <c r="U9">
         <v>2.13E-4</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37185D36-0EAF-8C48-8D6F-34B416CB0D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAAD65-56AD-BD4F-9F9C-1F955A7EDC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37059,7 +37059,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37146,6 +37146,9 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
+      <c r="C5">
+        <v>0.90296200000000004</v>
+      </c>
       <c r="D5">
         <v>0.90476299999999998</v>
       </c>
@@ -37160,6 +37163,9 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
+      <c r="C6">
+        <v>0.12953600000000001</v>
+      </c>
       <c r="D6">
         <v>0.12953600000000001</v>
       </c>
@@ -37174,6 +37180,9 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
+      <c r="C7">
+        <v>1.5136909999999999</v>
+      </c>
       <c r="D7">
         <v>1.6170329999999999</v>
       </c>
@@ -37193,6 +37202,9 @@
       <c r="A9" t="s">
         <v>74</v>
       </c>
+      <c r="C9">
+        <v>2.3200980000000002</v>
+      </c>
       <c r="D9">
         <v>2.5891709999999999</v>
       </c>
@@ -37202,6 +37214,9 @@
       <c r="F9">
         <v>3.4551639999999999</v>
       </c>
+      <c r="K9">
+        <v>602.69401400000004</v>
+      </c>
       <c r="L9">
         <v>605.04395499999998</v>
       </c>
@@ -37210,6 +37225,9 @@
       </c>
       <c r="N9">
         <v>599.73800900000003</v>
+      </c>
+      <c r="S9">
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="T9">
         <v>2.9E-5</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAAD65-56AD-BD4F-9F9C-1F955A7EDC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B2BA8-454A-8F44-BC7F-B112B38103B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37059,7 +37059,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37146,6 +37146,9 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
+      <c r="B5">
+        <v>0.90302300000000002</v>
+      </c>
       <c r="C5">
         <v>0.90296200000000004</v>
       </c>
@@ -37163,6 +37166,9 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
+      <c r="B6">
+        <v>0.12953600000000001</v>
+      </c>
       <c r="C6">
         <v>0.12953600000000001</v>
       </c>
@@ -37180,6 +37186,9 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
+      <c r="B7">
+        <v>1.6186499999999999</v>
+      </c>
       <c r="C7">
         <v>1.5136909999999999</v>
       </c>
@@ -37202,6 +37211,9 @@
       <c r="A9" t="s">
         <v>74</v>
       </c>
+      <c r="B9">
+        <v>2.0203139999999999</v>
+      </c>
       <c r="C9">
         <v>2.3200980000000002</v>
       </c>
@@ -37214,6 +37226,9 @@
       <c r="F9">
         <v>3.4551639999999999</v>
       </c>
+      <c r="J9">
+        <v>600.03226500000005</v>
+      </c>
       <c r="K9">
         <v>602.69401400000004</v>
       </c>
@@ -37225,6 +37240,9 @@
       </c>
       <c r="N9">
         <v>599.73800900000003</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
       </c>
       <c r="S9">
         <v>3.9999999999999998E-6</v>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B2BA8-454A-8F44-BC7F-B112B38103B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="736" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="2484" windowWidth="26736" windowHeight="18396" tabRatio="887" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -22,9 +21,10 @@
     <sheet name="k-means(obs_info)" sheetId="6" r:id="rId7"/>
     <sheet name="obs_info(revise)" sheetId="10" r:id="rId8"/>
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId9"/>
-    <sheet name="fftss" sheetId="4" r:id="rId10"/>
+    <sheet name="num_plasma(revise)" sheetId="11" r:id="rId10"/>
+    <sheet name="fftss" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -376,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -518,6 +518,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2133,6 +2134,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3092,6 +3094,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3376,6 +3379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3978,6 +3982,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8188,6 +8193,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9095,6 +9101,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10008,6 +10015,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12281,6 +12289,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12891,6 +12900,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34432,18 +34442,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -34845,14 +34855,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="J3">
+        <v>-6</v>
+      </c>
+      <c r="K3">
+        <v>-5</v>
+      </c>
+      <c r="L3">
+        <v>-4</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>-2</v>
+      </c>
+      <c r="R3">
+        <v>-6</v>
+      </c>
+      <c r="S3">
+        <v>-5</v>
+      </c>
+      <c r="T3">
+        <v>-4</v>
+      </c>
+      <c r="U3">
+        <v>-3</v>
+      </c>
+      <c r="V3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0.90453300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.12953500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1.4752289999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>2.7969780000000002</v>
+      </c>
+      <c r="J9">
+        <v>1126.73207</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -35143,14 +35290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -35626,16 +35773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -35938,14 +36085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F313FB-83AD-0442-9AB5-FB15F7618C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="B2">
@@ -36097,14 +36244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -36497,14 +36644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -36796,14 +36943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -37055,14 +37202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9925E5E1-8053-134A-937E-D64A5823C4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -37205,6 +37352,21 @@
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>73</v>
+      </c>
+      <c r="B8">
+        <v>1.0032939999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.0033559999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.000604</v>
+      </c>
+      <c r="E8">
+        <v>1.0286679999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.315936</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -37264,14 +37426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -518,7 +518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2134,7 +2133,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3094,7 +3092,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3379,7 +3376,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3982,7 +3978,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8193,7 +8188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9101,7 +9095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10015,7 +10008,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12289,7 +12281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12900,7 +12891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34859,7 +34849,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34949,6 +34939,9 @@
       <c r="B5">
         <v>0.90453300000000003</v>
       </c>
+      <c r="C5">
+        <v>0.90363800000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -34957,6 +34950,9 @@
       <c r="B6">
         <v>0.12953500000000001</v>
       </c>
+      <c r="C6">
+        <v>0.12886900000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -34965,6 +34961,9 @@
       <c r="B7">
         <v>1.4752289999999999</v>
       </c>
+      <c r="C7">
+        <v>1.618787</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
@@ -34978,11 +34977,20 @@
       <c r="B9">
         <v>2.7969780000000002</v>
       </c>
+      <c r="C9">
+        <v>3.3888340000000001</v>
+      </c>
       <c r="J9">
         <v>1126.73207</v>
       </c>
+      <c r="K9">
+        <v>1123.156798</v>
+      </c>
       <c r="R9">
         <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -34849,7 +34849,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34942,6 +34942,9 @@
       <c r="C5">
         <v>0.90363800000000005</v>
       </c>
+      <c r="D5">
+        <v>0.904057</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -34953,6 +34956,9 @@
       <c r="C6">
         <v>0.12886900000000001</v>
       </c>
+      <c r="D6">
+        <v>0.12953600000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -34964,6 +34970,9 @@
       <c r="C7">
         <v>1.618787</v>
       </c>
+      <c r="D7">
+        <v>1.7034800000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
@@ -34980,17 +34989,26 @@
       <c r="C9">
         <v>3.3888340000000001</v>
       </c>
+      <c r="D9">
+        <v>4.3368690000000001</v>
+      </c>
       <c r="J9">
         <v>1126.73207</v>
       </c>
       <c r="K9">
         <v>1123.156798</v>
       </c>
+      <c r="L9">
+        <v>1123.2163760000001</v>
+      </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
         <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="T9">
+        <v>2.9E-5</v>
       </c>
     </row>
   </sheetData>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -9095,6 +9095,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10008,6 +10009,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34849,7 +34851,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34945,6 +34947,9 @@
       <c r="D5">
         <v>0.904057</v>
       </c>
+      <c r="E5">
+        <v>0.90440699999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -34959,6 +34964,9 @@
       <c r="D6">
         <v>0.12953600000000001</v>
       </c>
+      <c r="E6">
+        <v>0.12886900000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -34973,6 +34981,9 @@
       <c r="D7">
         <v>1.7034800000000001</v>
       </c>
+      <c r="E7">
+        <v>2.185581</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
@@ -34992,6 +35003,9 @@
       <c r="D9">
         <v>4.3368690000000001</v>
       </c>
+      <c r="E9">
+        <v>7.1669080000000003</v>
+      </c>
       <c r="J9">
         <v>1126.73207</v>
       </c>
@@ -35001,6 +35015,9 @@
       <c r="L9">
         <v>1123.2163760000001</v>
       </c>
+      <c r="M9">
+        <v>1112.0473380000001</v>
+      </c>
       <c r="R9">
         <v>0</v>
       </c>
@@ -35009,6 +35026,9 @@
       </c>
       <c r="T9">
         <v>2.9E-5</v>
+      </c>
+      <c r="U9">
+        <v>3.7599999999999998E-4</v>
       </c>
     </row>
   </sheetData>
@@ -36973,7 +36993,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
@@ -37231,8 +37251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
@@ -37314,6 +37334,21 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1168.7577369999999</v>
+      </c>
+      <c r="K4">
+        <v>1168.7577369999999</v>
+      </c>
+      <c r="L4">
+        <v>1168.7577369999999</v>
+      </c>
+      <c r="M4">
+        <v>1168.7577369999999</v>
+      </c>
+      <c r="N4">
+        <v>1168.7577369999999</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -37393,6 +37428,36 @@
       </c>
       <c r="F8">
         <v>1.315936</v>
+      </c>
+      <c r="J8">
+        <v>1169.4037599999999</v>
+      </c>
+      <c r="K8">
+        <v>1169.8979019999999</v>
+      </c>
+      <c r="L8">
+        <v>1169.5013759999999</v>
+      </c>
+      <c r="M8">
+        <v>1171.559651</v>
+      </c>
+      <c r="N8">
+        <v>1168.2831980000001</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="V8">
+        <v>8.1089999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -37456,7 +37521,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F12"/>
+      <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -9095,7 +9095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34851,7 +34850,7 @@
   <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34933,6 +34932,21 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="K4">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="L4">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="M4">
+        <v>2206.6678849999998</v>
+      </c>
+      <c r="N4">
+        <v>2206.6678849999998</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -34950,6 +34964,9 @@
       <c r="E5">
         <v>0.90440699999999996</v>
       </c>
+      <c r="F5">
+        <v>0.90597300000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -34967,6 +34984,9 @@
       <c r="E6">
         <v>0.12886900000000001</v>
       </c>
+      <c r="F6">
+        <v>0.12953500000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -34984,11 +35004,59 @@
       <c r="E7">
         <v>2.185581</v>
       </c>
+      <c r="F7">
+        <v>6.6116710000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>73</v>
       </c>
+      <c r="B8">
+        <v>1.0000180000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.0004420000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.115305</v>
+      </c>
+      <c r="E8">
+        <v>1.7523679999999999</v>
+      </c>
+      <c r="F8">
+        <v>6.6116710000000003</v>
+      </c>
+      <c r="J8">
+        <v>2220.9988400000002</v>
+      </c>
+      <c r="K8">
+        <v>2105.8497699999998</v>
+      </c>
+      <c r="L8">
+        <v>2205.4593639999998</v>
+      </c>
+      <c r="M8">
+        <v>2172.3178710000002</v>
+      </c>
+      <c r="N8">
+        <v>2165.6020990000002</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="T8">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="U8">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="V8">
+        <v>1.8320000000000001E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
@@ -35006,6 +35074,9 @@
       <c r="E9">
         <v>7.1669080000000003</v>
       </c>
+      <c r="F9">
+        <v>21.052420000000001</v>
+      </c>
       <c r="J9">
         <v>1126.73207</v>
       </c>
@@ -35018,6 +35089,9 @@
       <c r="M9">
         <v>1112.0473380000001</v>
       </c>
+      <c r="N9">
+        <v>1107.493211</v>
+      </c>
       <c r="R9">
         <v>0</v>
       </c>
@@ -35029,6 +35103,9 @@
       </c>
       <c r="U9">
         <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="V9">
+        <v>3.7720000000000002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -37521,7 +37598,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\github\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="2484" windowWidth="26736" windowHeight="18396" tabRatio="887" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="887" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="k-means(num_plasma)" sheetId="7" r:id="rId9"/>
     <sheet name="num_plasma(revise)" sheetId="11" r:id="rId10"/>
     <sheet name="fftss" sheetId="4" r:id="rId11"/>
+    <sheet name="fftss(revise)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>byte</t>
     <phoneticPr fontId="1"/>
@@ -377,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2133,7 +2134,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4851,7 +4851,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5305,7 +5304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5753,7 +5751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8112,7 +8109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9020,7 +9016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11726,7 +11721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14439,6 +14433,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14889,6 +14884,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -42574,19 +42570,19 @@
       <selection activeCell="J10" sqref="J10:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -42606,7 +42602,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -42626,7 +42622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -42646,7 +42642,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -42666,7 +42662,7 @@
         <v>2.6504889999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -42689,7 +42685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -42730,7 +42726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -42768,7 +42764,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>B8/B6</f>
         <v>1.0839731274760089</v>
@@ -42792,7 +42788,7 @@
         <v>2.1343000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J10">
         <f>J8/$I$8</f>
         <v>0.86004725863909515</v>
@@ -42814,7 +42810,7 @@
         <v>0.50934977390219627</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J11">
         <f>J9/$I$8</f>
         <v>0.79123436206834508</v>
@@ -42836,12 +42832,12 @@
         <v>0.25600028786988283</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -42861,7 +42857,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -42881,7 +42877,7 @@
         <v>2.637E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -42901,12 +42897,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -42926,12 +42922,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -42951,7 +42947,7 @@
         <v>6.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -42983,13 +42979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:V4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -43000,7 +42996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-6</v>
       </c>
@@ -43047,7 +43043,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -43103,7 +43099,7 @@
         <v>3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -43141,7 +43137,7 @@
         <v>2165.6020990000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -43179,7 +43175,7 @@
         <v>1107.493211</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -43199,7 +43195,7 @@
         <v>6.6116710000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -43249,7 +43245,7 @@
         <v>1.8320000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -43307,7 +43303,7 @@
         <v>3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>73</v>
       </c>
@@ -43332,7 +43328,7 @@
         <v>0.98139013746511305</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
         <v>74</v>
       </c>
@@ -43369,17 +43365,17 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -43399,7 +43395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>AVERAGE(B4:B7)</f>
         <v>6.21041825</v>
@@ -43421,7 +43417,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>7.9996809999999998</v>
       </c>
@@ -43438,7 +43434,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>7.9996809999999998</v>
       </c>
@@ -43455,7 +43451,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.0025649999999999</v>
       </c>
@@ -43472,7 +43468,7 @@
         <v>1.0025649999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>7.8397459999999999</v>
       </c>
@@ -43489,12 +43485,12 @@
         <v>7.8397459999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -43517,7 +43513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -43537,7 +43533,7 @@
         <v>0.26097100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -43554,7 +43550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -43571,7 +43567,7 @@
         <v>1.553126</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -43579,7 +43575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -43587,7 +43583,7 @@
         <v>2.8202000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>1.9782000000000001E-2</v>
       </c>
@@ -43595,7 +43591,7 @@
         <v>2.2936000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1.8460000000000001E-2</v>
       </c>
@@ -43603,7 +43599,7 @@
         <v>2.4346E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2.6015E-2</v>
       </c>
@@ -43611,7 +43607,7 @@
         <v>3.0252999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D19">
         <f>SUM(D15:D18)</f>
         <v>8.6527000000000007E-2</v>
@@ -43625,12 +43621,12 @@
         <v>0.81832281982655086</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -43638,7 +43634,7 @@
         <v>4.2609000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -43646,7 +43642,7 @@
         <v>0.21291599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -43659,6 +43655,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A21:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>31.994337000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>6.21041825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26">
+        <v>21.333117000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43670,9 +43725,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -43680,7 +43735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -43736,7 +43791,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -43792,7 +43847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -43848,7 +43903,7 @@
         <v>0.50934977390219627</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -43889,7 +43944,7 @@
         <v>0.25600028786988283</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -43927,7 +43982,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -43965,7 +44020,7 @@
         <v>6.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -44003,7 +44058,7 @@
         <v>7.6559999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>68</v>
       </c>
@@ -44023,7 +44078,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>80</v>
       </c>
@@ -44046,7 +44101,7 @@
         <v>0.18054200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>81</v>
       </c>
@@ -44069,7 +44124,7 @@
         <v>0.23327600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>82</v>
       </c>
@@ -44092,7 +44147,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>83</v>
       </c>
@@ -44115,7 +44170,7 @@
         <v>0.101562</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J15">
         <f>SUM(J11:J14)</f>
         <v>0.111328</v>
@@ -44153,12 +44208,12 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -44184,7 +44239,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -44210,7 +44265,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -44239,7 +44294,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -44268,7 +44323,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -44297,7 +44352,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -44317,7 +44372,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -44325,7 +44380,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -44333,7 +44388,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -44341,7 +44396,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -44349,7 +44404,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -44357,7 +44412,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -44365,12 +44420,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -44393,7 +44448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>59.392279000000002</v>
       </c>
@@ -44413,12 +44468,12 @@
         <v>60.722251999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -44435,7 +44490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -44465,9 +44520,9 @@
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>-6</v>
       </c>
@@ -44484,7 +44539,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -44504,7 +44559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -44524,7 +44579,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -44544,7 +44599,7 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -44564,7 +44619,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -44584,7 +44639,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -44604,7 +44659,7 @@
         <v>14.010788</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>7.5494089999999998</v>
       </c>
@@ -44624,14 +44679,14 @@
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -44654,7 +44709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -44674,12 +44729,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -44699,7 +44754,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -44719,12 +44774,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -44747,7 +44802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -44767,12 +44822,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -44792,7 +44847,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -44812,12 +44867,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -44840,7 +44895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <f xml:space="preserve"> 1/0.979871</f>
         <v>1.0205424999821404</v>
@@ -44861,12 +44916,12 @@
         <v>1.359143</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -44889,7 +44944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>596.92707900000005</v>
       </c>
@@ -44909,12 +44964,12 @@
         <v>602.11321499999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -44937,7 +44992,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -44960,12 +45015,12 @@
         <v>1.042E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -44988,7 +45043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2.4117739999999999</v>
       </c>
@@ -45024,14 +45079,14 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -45054,7 +45109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>17.508977999999999</v>
       </c>
@@ -45074,12 +45129,12 @@
         <v>17.999881999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -45102,7 +45157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -45122,12 +45177,12 @@
         <v>7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -45150,7 +45205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.1000529999999999</v>
       </c>
@@ -45167,12 +45222,12 @@
         <v>6.6116710000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -45195,7 +45250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>167.09126599999999</v>
       </c>
@@ -45215,12 +45270,12 @@
         <v>166.793948</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -45243,7 +45298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -45263,12 +45318,12 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -45291,7 +45346,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1.5219180000000001</v>
       </c>
@@ -45323,14 +45378,14 @@
       <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -45356,7 +45411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1168.7577369999999</v>
       </c>
@@ -45379,12 +45434,12 @@
         <v>1173.325169</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -45407,7 +45462,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -45430,12 +45485,12 @@
         <v>8.1089999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -45458,7 +45513,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1</v>
       </c>
@@ -45478,12 +45533,12 @@
         <v>1.315936</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -45506,12 +45561,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -45534,17 +45589,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -45582,9 +45637,9 @@
       <selection activeCell="Q3" sqref="Q3:V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -45595,7 +45650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-6</v>
       </c>
@@ -45642,7 +45697,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -45698,7 +45753,7 @@
         <v>1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -45736,7 +45791,7 @@
         <v>1168.2831980000001</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -45774,7 +45829,7 @@
         <v>599.73800900000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -45794,7 +45849,7 @@
         <v>1.655878</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -45844,7 +45899,7 @@
         <v>1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -45902,7 +45957,7 @@
         <v>1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>73</v>
       </c>
@@ -45927,7 +45982,7 @@
         <v>0.99959398001401223</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
         <v>74</v>
       </c>
@@ -45968,14 +46023,14 @@
       <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -46001,7 +46056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2206.6678849999998</v>
       </c>
@@ -46024,12 +46079,12 @@
         <v>2165.6020990000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -46052,7 +46107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -46075,12 +46130,12 @@
         <v>1.8320000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -46103,7 +46158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.0000180000000001</v>
       </c>
@@ -46123,12 +46178,12 @@
         <v>6.6116710000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -46151,12 +46206,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -46179,17 +46234,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>

--- a/impl/data-compression.xlsx
+++ b/impl/data-compression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\data-compression\impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/github/data-compression/impl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7E567F-0A14-454B-BF90-C122981607B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="887" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="4160" yWindow="2480" windowWidth="26740" windowHeight="18400" tabRatio="887" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ping-pong" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,33 @@
     <sheet name="fftss" sheetId="4" r:id="rId11"/>
     <sheet name="fftss(revise)" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'pingpong(revise)'!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'pingpong(revise)'!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'pingpong(revise)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'pingpong(revise)'!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'pingpong(revise)'!$A$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'pingpong(revise)'!$A$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'pingpong(revise)'!$A$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'pingpong(revise)'!$A$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'pingpong(revise)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'pingpong(revise)'!$A$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'pingpong(revise)'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'pingpong(revise)'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'pingpong(revise)'!$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'pingpong(revise)'!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'pingpong(revise)'!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'pingpong(revise)'!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'pingpong(revise)'!$B$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'pingpong(revise)'!$A$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'pingpong(revise)'!$A$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'pingpong(revise)'!$A$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'pingpong(revise)'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'pingpong(revise)'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'pingpong(revise)'!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'pingpong(revise)'!$B$6:$F$6</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -377,8 +404,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9587,19 +9614,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.90302300000000002</c:v>
+                  <c:v>1.9008998078459658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90296200000000004</c:v>
+                  <c:v>1.9008998078459658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90476299999999998</c:v>
+                  <c:v>1.9008998078459658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90624300000000002</c:v>
+                  <c:v>1.9008998078459658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90691900000000003</c:v>
+                  <c:v>1.9008998078459658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9667,19 +9694,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6186499999999999</c:v>
+                  <c:v>3.4073234834216537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5136909999999999</c:v>
+                  <c:v>3.6522508592186016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6170329999999999</c:v>
+                  <c:v>4.4523446697155098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7254389999999999</c:v>
+                  <c:v>5.0109910613825743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.655878</c:v>
+                  <c:v>5.2476206727369927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12767,19 +12794,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.90453300000000003</c:v>
+                  <c:v>1.9040784187006696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90363800000000005</c:v>
+                  <c:v>1.9040784187006696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.904057</c:v>
+                  <c:v>1.9040784187006696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90440699999999996</c:v>
+                  <c:v>1.9040784187006696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90597300000000003</c:v>
+                  <c:v>1.9040784187006696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12847,19 +12874,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4752289999999999</c:v>
+                  <c:v>3.1054164983935024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.618787</c:v>
+                  <c:v>3.9058276832206196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7034800000000001</c:v>
+                  <c:v>4.690368160678835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.185581</c:v>
+                  <c:v>6.3473277553872309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6116710000000003</c:v>
+                  <c:v>20.952957537291798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14433,7 +14460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14884,7 +14910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17677,19 +17702,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85253400000000001</c:v>
+                  <c:v>1.1008167303499816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85253400000000001</c:v>
+                  <c:v>1.1008167303499816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85253400000000001</c:v>
+                  <c:v>1.1008167303499816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85253400000000001</c:v>
+                  <c:v>1.1008167303499816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85253400000000001</c:v>
+                  <c:v>1.1008167303499816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17756,19 +17781,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.419719</c:v>
+                  <c:v>1.6788433967184178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75196</c:v>
+                  <c:v>2.4286606155375079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0221079999999998</c:v>
+                  <c:v>3.3982400235673165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5354619999999999</c:v>
+                  <c:v>4.7431520000789478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1054200000000001</c:v>
+                  <c:v>6.8596271490029537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37552,7 +37577,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -37582,7 +37613,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -37612,7 +37649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -37650,7 +37693,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37686,7 +37729,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37712,15 +37755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:colOff>35379</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37989,7 +38032,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881C4E1A-3D62-7B41-A932-463F1597757C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38030,7 +38073,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38066,7 +38109,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38102,7 +38145,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38138,7 +38181,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38174,7 +38217,7 @@
         <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38215,7 +38258,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38251,7 +38294,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38292,7 +38335,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38328,7 +38371,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38366,7 +38409,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -38396,7 +38445,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -38426,7 +38481,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -38464,7 +38525,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38500,7 +38561,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42563,26 +42624,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:N11"/>
+      <selection activeCell="A4" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -42602,7 +42663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -42622,7 +42683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -42642,7 +42703,7 @@
         <v>2.1447829999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -42662,7 +42723,7 @@
         <v>2.6504889999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -42685,7 +42746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -42726,7 +42787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -42764,7 +42825,7 @@
         <v>4.2465000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9">
         <f>B8/B6</f>
         <v>1.0839731274760089</v>
@@ -42788,7 +42849,7 @@
         <v>2.1343000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="J10">
         <f>J8/$I$8</f>
         <v>0.86004725863909515</v>
@@ -42810,7 +42871,7 @@
         <v>0.50934977390219627</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="J11">
         <f>J9/$I$8</f>
         <v>0.79123436206834508</v>
@@ -42832,12 +42893,12 @@
         <v>0.25600028786988283</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -42857,7 +42918,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -42877,7 +42938,7 @@
         <v>2.637E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -42897,12 +42958,12 @@
         <v>2.826E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -42922,12 +42983,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -42947,7 +43008,7 @@
         <v>6.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -42976,16 +43037,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:V11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+    <sheetView topLeftCell="A10" zoomScale="159" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -42996,7 +43057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="B3">
         <v>-6</v>
       </c>
@@ -43043,7 +43104,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -43099,24 +43160,24 @@
         <v>3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>69</v>
       </c>
       <c r="B5">
-        <v>0.90453300000000003</v>
+        <v>1.9040784187006696</v>
       </c>
       <c r="C5">
-        <v>0.90363800000000005</v>
+        <v>1.9040784187006696</v>
       </c>
       <c r="D5">
-        <v>0.904057</v>
+        <v>1.9040784187006696</v>
       </c>
       <c r="E5">
-        <v>0.90440699999999996</v>
+        <v>1.9040784187006696</v>
       </c>
       <c r="F5">
-        <v>0.90597300000000003</v>
+        <v>1.9040784187006696</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
@@ -43137,7 +43198,7 @@
         <v>2165.6020990000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -43175,27 +43236,27 @@
         <v>1107.493211</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>71</v>
       </c>
       <c r="B7">
-        <v>1.4752289999999999</v>
+        <v>3.1054164983935024</v>
       </c>
       <c r="C7">
-        <v>1.618787</v>
+        <v>3.9058276832206196</v>
       </c>
       <c r="D7">
-        <v>1.7034800000000001</v>
+        <v>4.690368160678835</v>
       </c>
       <c r="E7">
-        <v>2.185581</v>
+        <v>6.3473277553872309</v>
       </c>
       <c r="F7">
-        <v>6.6116710000000003</v>
+        <v>20.952957537291798</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -43245,7 +43306,7 @@
         <v>1.8320000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -43303,7 +43364,7 @@
         <v>3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="I10" t="s">
         <v>73</v>
       </c>
@@ -43328,7 +43389,7 @@
         <v>0.98139013746511305</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="I11" t="s">
         <v>74</v>
       </c>
@@ -43361,21 +43422,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -43395,7 +43456,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <f>AVERAGE(B4:B7)</f>
         <v>6.21041825</v>
@@ -43417,7 +43478,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>7.9996809999999998</v>
       </c>
@@ -43434,7 +43495,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>7.9996809999999998</v>
       </c>
@@ -43451,7 +43512,7 @@
         <v>7.9996809999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>1.0025649999999999</v>
       </c>
@@ -43468,7 +43529,7 @@
         <v>1.0025649999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>7.8397459999999999</v>
       </c>
@@ -43485,12 +43546,12 @@
         <v>7.8397459999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -43513,7 +43574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -43533,7 +43594,7 @@
         <v>0.26097100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -43550,7 +43611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>4.2609000000000001E-2</v>
       </c>
@@ -43567,7 +43628,7 @@
         <v>1.553126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -43575,7 +43636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -43583,7 +43644,7 @@
         <v>2.8202000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="D16">
         <v>1.9782000000000001E-2</v>
       </c>
@@ -43591,7 +43652,7 @@
         <v>2.2936000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="D17">
         <v>1.8460000000000001E-2</v>
       </c>
@@ -43599,7 +43660,7 @@
         <v>2.4346E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="D18">
         <v>2.6015E-2</v>
       </c>
@@ -43607,7 +43668,7 @@
         <v>3.0252999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="D19">
         <f>SUM(D15:D18)</f>
         <v>8.6527000000000007E-2</v>
@@ -43621,12 +43682,12 @@
         <v>0.81832281982655086</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -43634,7 +43695,7 @@
         <v>4.2609000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -43642,7 +43703,7 @@
         <v>0.21291599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -43659,16 +43720,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A21:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -43676,17 +43737,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -43694,7 +43755,7 @@
         <v>31.994337000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -43702,7 +43763,7 @@
         <v>6.21041825</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -43718,16 +43779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -43735,7 +43799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -43791,7 +43855,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -43847,24 +43911,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>69</v>
       </c>
       <c r="B4">
-        <v>0.85253400000000001</v>
+        <v>1.1008167303499816</v>
       </c>
       <c r="C4">
-        <v>0.85253400000000001</v>
+        <v>1.1008167303499816</v>
       </c>
       <c r="D4">
-        <v>0.85253400000000001</v>
+        <v>1.1008167303499816</v>
       </c>
       <c r="E4">
-        <v>0.85253400000000001</v>
+        <v>1.1008167303499816</v>
       </c>
       <c r="F4">
-        <v>0.85253400000000001</v>
+        <v>1.1008167303499816</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
@@ -43903,7 +43967,7 @@
         <v>0.50934977390219627</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -43944,24 +44008,24 @@
         <v>0.25600028786988283</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>71</v>
       </c>
       <c r="B6">
-        <v>1.419719</v>
+        <v>1.6788433967184178</v>
       </c>
       <c r="C6">
-        <v>1.75196</v>
+        <v>2.4286606155375079</v>
       </c>
       <c r="D6">
-        <v>2.0221079999999998</v>
+        <v>3.3982400235673165</v>
       </c>
       <c r="E6">
-        <v>2.5354619999999999</v>
+        <v>4.7431520000789478</v>
       </c>
       <c r="F6">
-        <v>3.1054200000000001</v>
+        <v>6.8596271490029537</v>
       </c>
       <c r="I6" t="s">
         <v>68</v>
@@ -43982,7 +44046,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -44020,7 +44084,7 @@
         <v>6.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -44058,7 +44122,7 @@
         <v>7.6559999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="I10" t="s">
         <v>68</v>
       </c>
@@ -44078,7 +44142,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="H11" t="s">
         <v>80</v>
       </c>
@@ -44101,7 +44165,7 @@
         <v>0.18054200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="H12" t="s">
         <v>81</v>
       </c>
@@ -44124,7 +44188,7 @@
         <v>0.23327600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="H13" t="s">
         <v>82</v>
       </c>
@@ -44147,7 +44211,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="H14" t="s">
         <v>83</v>
       </c>
@@ -44170,7 +44234,7 @@
         <v>0.101562</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="J15">
         <f>SUM(J11:J14)</f>
         <v>0.111328</v>
@@ -44201,19 +44265,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -44239,7 +44303,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -44265,7 +44329,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -44294,7 +44358,7 @@
         <v>3.96469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -44323,7 +44387,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -44352,7 +44416,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -44372,7 +44436,7 @@
         <v>12.947824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -44380,7 +44444,7 @@
         <v>3.7763</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -44388,7 +44452,7 @@
         <v>10.402900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -44396,7 +44460,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -44404,7 +44468,7 @@
         <v>5.4892000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -44412,7 +44476,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -44420,12 +44484,12 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -44448,7 +44512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>59.392279000000002</v>
       </c>
@@ -44468,12 +44532,12 @@
         <v>60.722251999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -44490,7 +44554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="1">
         <v>8.1706539999999999E-4</v>
       </c>
@@ -44513,16 +44577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="I4" sqref="I4:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="B2">
         <v>-6</v>
       </c>
@@ -44539,7 +44603,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -44559,7 +44623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -44579,7 +44643,7 @@
         <v>1.0692999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -44599,7 +44663,7 @@
         <v>0.98680000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -44619,7 +44683,7 @@
         <v>15.012912</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -44639,7 +44703,7 @@
         <v>3.8102360000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -44659,7 +44723,7 @@
         <v>14.010788</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="F9">
         <v>7.5494089999999998</v>
       </c>
@@ -44672,21 +44736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -44709,7 +44773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>3.6736149999999999</v>
       </c>
@@ -44729,12 +44793,12 @@
         <v>3.8312430000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -44754,7 +44818,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -44774,12 +44838,12 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -44802,7 +44866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>37.079129000000002</v>
       </c>
@@ -44822,12 +44886,12 @@
         <v>35.168976999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -44847,7 +44911,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -44867,12 +44931,12 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -44895,7 +44959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20">
         <f xml:space="preserve"> 1/0.979871</f>
         <v>1.0205424999821404</v>
@@ -44916,12 +44980,12 @@
         <v>1.359143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -44944,7 +45008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="B24">
         <v>596.92707900000005</v>
       </c>
@@ -44964,12 +45028,12 @@
         <v>602.11321499999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -44992,7 +45056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -45015,12 +45079,12 @@
         <v>1.042E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -45043,7 +45107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>2.4117739999999999</v>
       </c>
@@ -45072,21 +45136,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -45109,7 +45173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>17.508977999999999</v>
       </c>
@@ -45129,12 +45193,12 @@
         <v>17.999881999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -45157,7 +45221,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -45177,12 +45241,12 @@
         <v>7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -45205,7 +45269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>1.1000529999999999</v>
       </c>
@@ -45222,12 +45286,12 @@
         <v>6.6116710000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -45250,7 +45314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="B17">
         <v>167.09126599999999</v>
       </c>
@@ -45270,12 +45334,12 @@
         <v>166.793948</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -45298,7 +45362,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -45318,12 +45382,12 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -45346,7 +45410,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="B26">
         <v>1.5219180000000001</v>
       </c>
@@ -45371,21 +45435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://sc